--- a/de/data/destatis_12411-0012.xlsx
+++ b/de/data/destatis_12411-0012.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8205" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="12411-0012" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Bevölkerung: Bundesländer, Stichtag, Altersjahre</t>
   </si>
@@ -438,6 +437,12 @@
   </si>
   <si>
     <t>85..110</t>
+  </si>
+  <si>
+    <t>Summe gesamt</t>
+  </si>
+  <si>
+    <t>Summe bis 100</t>
   </si>
 </sst>
 </file>
@@ -445,7 +450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -611,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,34 +907,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1218,9 +1225,6 @@
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="CD7" sqref="CD7"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1231,397 +1235,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="99"/>
-      <c r="BD1" s="99"/>
-      <c r="BE1" s="99"/>
-      <c r="BF1" s="99"/>
-      <c r="BG1" s="99"/>
-      <c r="BH1" s="99"/>
-      <c r="BI1" s="99"/>
-      <c r="BJ1" s="99"/>
-      <c r="BK1" s="99"/>
-      <c r="BL1" s="99"/>
-      <c r="BM1" s="99"/>
-      <c r="BN1" s="99"/>
-      <c r="BO1" s="99"/>
-      <c r="BP1" s="99"/>
-      <c r="BQ1" s="99"/>
-      <c r="BR1" s="99"/>
-      <c r="BS1" s="99"/>
-      <c r="BT1" s="99"/>
-      <c r="BU1" s="99"/>
-      <c r="BV1" s="99"/>
-      <c r="BW1" s="99"/>
-      <c r="BX1" s="99"/>
-      <c r="BY1" s="99"/>
-      <c r="BZ1" s="99"/>
-      <c r="CA1" s="99"/>
-      <c r="CB1" s="99"/>
-      <c r="CC1" s="99"/>
-      <c r="CD1" s="99"/>
-      <c r="CE1" s="99"/>
-      <c r="CF1" s="99"/>
-      <c r="CG1" s="99"/>
-      <c r="CH1" s="99"/>
-      <c r="CI1" s="99"/>
-      <c r="CJ1" s="99"/>
-      <c r="CK1" s="99"/>
-      <c r="CL1" s="99"/>
-      <c r="CM1" s="99"/>
-      <c r="CN1" s="99"/>
-      <c r="CO1" s="100"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="105"/>
+      <c r="BP1" s="105"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="105"/>
+      <c r="BS1" s="105"/>
+      <c r="BT1" s="105"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="105"/>
+      <c r="BW1" s="105"/>
+      <c r="BX1" s="105"/>
+      <c r="BY1" s="105"/>
+      <c r="BZ1" s="105"/>
+      <c r="CA1" s="105"/>
+      <c r="CB1" s="105"/>
+      <c r="CC1" s="105"/>
+      <c r="CD1" s="105"/>
+      <c r="CE1" s="105"/>
+      <c r="CF1" s="105"/>
+      <c r="CG1" s="105"/>
+      <c r="CH1" s="105"/>
+      <c r="CI1" s="105"/>
+      <c r="CJ1" s="105"/>
+      <c r="CK1" s="105"/>
+      <c r="CL1" s="105"/>
+      <c r="CM1" s="105"/>
+      <c r="CN1" s="105"/>
+      <c r="CO1" s="106"/>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="99"/>
-      <c r="BD2" s="99"/>
-      <c r="BE2" s="99"/>
-      <c r="BF2" s="99"/>
-      <c r="BG2" s="99"/>
-      <c r="BH2" s="99"/>
-      <c r="BI2" s="99"/>
-      <c r="BJ2" s="99"/>
-      <c r="BK2" s="99"/>
-      <c r="BL2" s="99"/>
-      <c r="BM2" s="99"/>
-      <c r="BN2" s="99"/>
-      <c r="BO2" s="99"/>
-      <c r="BP2" s="99"/>
-      <c r="BQ2" s="99"/>
-      <c r="BR2" s="99"/>
-      <c r="BS2" s="99"/>
-      <c r="BT2" s="99"/>
-      <c r="BU2" s="99"/>
-      <c r="BV2" s="99"/>
-      <c r="BW2" s="99"/>
-      <c r="BX2" s="99"/>
-      <c r="BY2" s="99"/>
-      <c r="BZ2" s="99"/>
-      <c r="CA2" s="99"/>
-      <c r="CB2" s="99"/>
-      <c r="CC2" s="99"/>
-      <c r="CD2" s="99"/>
-      <c r="CE2" s="99"/>
-      <c r="CF2" s="99"/>
-      <c r="CG2" s="99"/>
-      <c r="CH2" s="99"/>
-      <c r="CI2" s="99"/>
-      <c r="CJ2" s="99"/>
-      <c r="CK2" s="99"/>
-      <c r="CL2" s="99"/>
-      <c r="CM2" s="99"/>
-      <c r="CN2" s="99"/>
-      <c r="CO2" s="100"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="105"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="105"/>
+      <c r="BE2" s="105"/>
+      <c r="BF2" s="105"/>
+      <c r="BG2" s="105"/>
+      <c r="BH2" s="105"/>
+      <c r="BI2" s="105"/>
+      <c r="BJ2" s="105"/>
+      <c r="BK2" s="105"/>
+      <c r="BL2" s="105"/>
+      <c r="BM2" s="105"/>
+      <c r="BN2" s="105"/>
+      <c r="BO2" s="105"/>
+      <c r="BP2" s="105"/>
+      <c r="BQ2" s="105"/>
+      <c r="BR2" s="105"/>
+      <c r="BS2" s="105"/>
+      <c r="BT2" s="105"/>
+      <c r="BU2" s="105"/>
+      <c r="BV2" s="105"/>
+      <c r="BW2" s="105"/>
+      <c r="BX2" s="105"/>
+      <c r="BY2" s="105"/>
+      <c r="BZ2" s="105"/>
+      <c r="CA2" s="105"/>
+      <c r="CB2" s="105"/>
+      <c r="CC2" s="105"/>
+      <c r="CD2" s="105"/>
+      <c r="CE2" s="105"/>
+      <c r="CF2" s="105"/>
+      <c r="CG2" s="105"/>
+      <c r="CH2" s="105"/>
+      <c r="CI2" s="105"/>
+      <c r="CJ2" s="105"/>
+      <c r="CK2" s="105"/>
+      <c r="CL2" s="105"/>
+      <c r="CM2" s="105"/>
+      <c r="CN2" s="105"/>
+      <c r="CO2" s="106"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="99"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="99"/>
-      <c r="BN3" s="99"/>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="99"/>
-      <c r="BU3" s="99"/>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="99"/>
-      <c r="CB3" s="99"/>
-      <c r="CC3" s="99"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
-      <c r="CG3" s="99"/>
-      <c r="CH3" s="99"/>
-      <c r="CI3" s="99"/>
-      <c r="CJ3" s="99"/>
-      <c r="CK3" s="99"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="99"/>
-      <c r="CO3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="105"/>
+      <c r="BD3" s="105"/>
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="105"/>
+      <c r="BH3" s="105"/>
+      <c r="BI3" s="105"/>
+      <c r="BJ3" s="105"/>
+      <c r="BK3" s="105"/>
+      <c r="BL3" s="105"/>
+      <c r="BM3" s="105"/>
+      <c r="BN3" s="105"/>
+      <c r="BO3" s="105"/>
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="105"/>
+      <c r="BR3" s="105"/>
+      <c r="BS3" s="105"/>
+      <c r="BT3" s="105"/>
+      <c r="BU3" s="105"/>
+      <c r="BV3" s="105"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="105"/>
+      <c r="BY3" s="105"/>
+      <c r="BZ3" s="105"/>
+      <c r="CA3" s="105"/>
+      <c r="CB3" s="105"/>
+      <c r="CC3" s="105"/>
+      <c r="CD3" s="105"/>
+      <c r="CE3" s="105"/>
+      <c r="CF3" s="105"/>
+      <c r="CG3" s="105"/>
+      <c r="CH3" s="105"/>
+      <c r="CI3" s="105"/>
+      <c r="CJ3" s="105"/>
+      <c r="CK3" s="105"/>
+      <c r="CL3" s="105"/>
+      <c r="CM3" s="105"/>
+      <c r="CN3" s="105"/>
+      <c r="CO3" s="106"/>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="104"/>
-      <c r="BR4" s="104"/>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="104"/>
-      <c r="BY4" s="104"/>
-      <c r="BZ4" s="104"/>
-      <c r="CA4" s="104"/>
-      <c r="CB4" s="104"/>
-      <c r="CC4" s="104"/>
-      <c r="CD4" s="104"/>
-      <c r="CE4" s="104"/>
-      <c r="CF4" s="104"/>
-      <c r="CG4" s="104"/>
-      <c r="CH4" s="104"/>
-      <c r="CI4" s="104"/>
-      <c r="CJ4" s="104"/>
-      <c r="CK4" s="104"/>
-      <c r="CL4" s="104"/>
-      <c r="CM4" s="104"/>
-      <c r="CN4" s="104"/>
-      <c r="CO4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="110"/>
+      <c r="CC4" s="110"/>
+      <c r="CD4" s="110"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="110"/>
+      <c r="CI4" s="110"/>
+      <c r="CJ4" s="110"/>
+      <c r="CK4" s="110"/>
+      <c r="CL4" s="110"/>
+      <c r="CM4" s="110"/>
+      <c r="CN4" s="110"/>
+      <c r="CO4" s="111"/>
     </row>
     <row r="5" spans="1:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1900,101 +1904,101 @@
       </c>
     </row>
     <row r="6" spans="1:93" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="99"/>
-      <c r="AY6" s="99"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="99"/>
-      <c r="BC6" s="99"/>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="99"/>
-      <c r="BG6" s="99"/>
-      <c r="BH6" s="99"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="99"/>
-      <c r="BK6" s="99"/>
-      <c r="BL6" s="99"/>
-      <c r="BM6" s="99"/>
-      <c r="BN6" s="99"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="99"/>
-      <c r="BQ6" s="99"/>
-      <c r="BR6" s="99"/>
-      <c r="BS6" s="99"/>
-      <c r="BT6" s="99"/>
-      <c r="BU6" s="99"/>
-      <c r="BV6" s="99"/>
-      <c r="BW6" s="99"/>
-      <c r="BX6" s="99"/>
-      <c r="BY6" s="99"/>
-      <c r="BZ6" s="99"/>
-      <c r="CA6" s="99"/>
-      <c r="CB6" s="99"/>
-      <c r="CC6" s="99"/>
-      <c r="CD6" s="99"/>
-      <c r="CE6" s="99"/>
-      <c r="CF6" s="99"/>
-      <c r="CG6" s="99"/>
-      <c r="CH6" s="99"/>
-      <c r="CI6" s="99"/>
-      <c r="CJ6" s="99"/>
-      <c r="CK6" s="99"/>
-      <c r="CL6" s="99"/>
-      <c r="CM6" s="99"/>
-      <c r="CN6" s="99"/>
-      <c r="CO6" s="100"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
+      <c r="BR6" s="105"/>
+      <c r="BS6" s="105"/>
+      <c r="BT6" s="105"/>
+      <c r="BU6" s="105"/>
+      <c r="BV6" s="105"/>
+      <c r="BW6" s="105"/>
+      <c r="BX6" s="105"/>
+      <c r="BY6" s="105"/>
+      <c r="BZ6" s="105"/>
+      <c r="CA6" s="105"/>
+      <c r="CB6" s="105"/>
+      <c r="CC6" s="105"/>
+      <c r="CD6" s="105"/>
+      <c r="CE6" s="105"/>
+      <c r="CF6" s="105"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
+      <c r="CJ6" s="105"/>
+      <c r="CK6" s="105"/>
+      <c r="CL6" s="105"/>
+      <c r="CM6" s="105"/>
+      <c r="CN6" s="105"/>
+      <c r="CO6" s="106"/>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -6519,12 +6523,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:CO6"/>
     <mergeCell ref="A1:CO1"/>
     <mergeCell ref="A2:CO2"/>
     <mergeCell ref="A3:CO3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:CO4"/>
-    <mergeCell ref="A6:CO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -6535,2618 +6539,2754 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:40" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="108">
+      <c r="F1" s="100">
         <v>1</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="G1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="108">
-        <f>D1+1</f>
+      <c r="H1" s="100">
+        <f>F1+1</f>
         <v>2</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="I1" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="108">
-        <f>F1+1</f>
+      <c r="J1" s="100">
+        <f>H1+1</f>
         <v>3</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="K1" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="108">
-        <f>H1+1</f>
+      <c r="L1" s="100">
+        <f>J1+1</f>
         <v>4</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="M1" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="108">
-        <f>J1+1</f>
+      <c r="N1" s="100">
+        <f>L1+1</f>
         <v>5</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="O1" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="108">
-        <f>L1+1</f>
+      <c r="P1" s="100">
+        <f>N1+1</f>
         <v>6</v>
       </c>
-      <c r="O1" s="108" t="s">
+      <c r="Q1" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="108">
-        <f>N1+1</f>
+      <c r="R1" s="100">
+        <f>P1+1</f>
         <v>7</v>
       </c>
-      <c r="Q1" s="108" t="s">
+      <c r="S1" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="108">
-        <f>P1+1</f>
+      <c r="T1" s="100">
+        <f>R1+1</f>
         <v>8</v>
       </c>
-      <c r="S1" s="108" t="s">
+      <c r="U1" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="108">
-        <f>R1+1</f>
+      <c r="V1" s="100">
+        <f>T1+1</f>
         <v>9</v>
       </c>
-      <c r="U1" s="108" t="s">
+      <c r="W1" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="108">
-        <f>T1+1</f>
+      <c r="X1" s="100">
+        <f>V1+1</f>
         <v>10</v>
       </c>
-      <c r="W1" s="108" t="s">
+      <c r="Y1" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="108">
-        <f>V1+1</f>
+      <c r="Z1" s="100">
+        <f>X1+1</f>
         <v>11</v>
       </c>
-      <c r="Y1" s="108" t="s">
+      <c r="AA1" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="108">
-        <f>X1+1</f>
+      <c r="AB1" s="100">
+        <f>Z1+1</f>
         <v>12</v>
       </c>
-      <c r="AA1" s="108" t="s">
+      <c r="AC1" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="108">
-        <f>Z1+1</f>
+      <c r="AD1" s="100">
+        <f>AB1+1</f>
         <v>13</v>
       </c>
-      <c r="AC1" s="108" t="s">
+      <c r="AE1" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="108">
-        <f>AB1+1</f>
+      <c r="AF1" s="100">
+        <f>AD1+1</f>
         <v>14</v>
       </c>
-      <c r="AE1" s="108" t="s">
+      <c r="AG1" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="108">
-        <f>AD1+1</f>
+      <c r="AH1" s="100">
+        <f>AF1+1</f>
         <v>15</v>
       </c>
-      <c r="AG1" s="108" t="s">
+      <c r="AI1" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="108">
-        <f>AF1+1</f>
+      <c r="AJ1" s="100">
+        <f>AH1+1</f>
         <v>16</v>
       </c>
-      <c r="AI1" s="108" t="s">
+      <c r="AK1" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="108">
-        <f>AH1+1</f>
+      <c r="AL1" s="100">
+        <f>AJ1+1</f>
         <v>17</v>
       </c>
-      <c r="AK1" s="108" t="s">
+      <c r="AM1" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" s="108">
-        <f>AJ1+1</f>
+      <c r="AN1" s="100">
+        <f>AL1+1</f>
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="str">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="str">
         <f>'12411-0012'!A7</f>
         <v>Baden-Württemberg</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="102">
         <f>'12411-0012'!CO7</f>
         <v>11069533</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="113">
+        <f>SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2)</f>
+        <v>0.96392015814939969</v>
+      </c>
+      <c r="D2" s="113">
+        <f>C2+AN2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
         <f>SUM('12411-0012'!B7:F7)</f>
         <v>536556</v>
       </c>
-      <c r="D2" s="107">
-        <f>C2/$B2</f>
+      <c r="F2" s="99">
+        <f>E2/$B2</f>
         <v>4.847142151344596E-2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <f>SUM('12411-0012'!G7:K7)</f>
         <v>495446</v>
       </c>
-      <c r="F2" s="107">
-        <f>E2/$B2</f>
+      <c r="H2" s="99">
+        <f>G2/$B2</f>
         <v>4.4757624373132993E-2</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <f>SUM('12411-0012'!L7:P7)</f>
         <v>512763</v>
       </c>
-      <c r="H2" s="107">
-        <f>G2/$B2</f>
+      <c r="J2" s="99">
+        <f>I2/$B2</f>
         <v>4.6322008344886818E-2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>SUM('12411-0012'!R7:U7)</f>
         <v>460973</v>
       </c>
-      <c r="J2" s="107">
-        <f>I2/$B2</f>
+      <c r="L2" s="99">
+        <f>K2/$B2</f>
         <v>4.1643400855302569E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>SUM('12411-0012'!V7:Z7)</f>
         <v>676938</v>
       </c>
-      <c r="L2" s="107">
-        <f>K2/$B2</f>
+      <c r="N2" s="99">
+        <f>M2/$B2</f>
         <v>6.1153257323502262E-2</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>SUM('12411-0012'!AA7:AE7)</f>
         <v>740603</v>
       </c>
-      <c r="N2" s="107">
-        <f>M2/$B2</f>
+      <c r="P2" s="99">
+        <f>O2/$B2</f>
         <v>6.6904629129340865E-2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <f>SUM('12411-0012'!AF7:AJ7)</f>
         <v>732937</v>
       </c>
-      <c r="P2" s="107">
-        <f>O2/$B2</f>
+      <c r="R2" s="99">
+        <f>Q2/$B2</f>
         <v>6.6212097655790905E-2</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>SUM('12411-0012'!AK7:AO7)</f>
         <v>704214</v>
       </c>
-      <c r="R2" s="107">
-        <f>Q2/$B2</f>
+      <c r="T2" s="99">
+        <f>S2/$B2</f>
         <v>6.3617317912146795E-2</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <f>SUM('12411-0012'!AP7:AT7)</f>
         <v>655223</v>
       </c>
-      <c r="T2" s="107">
-        <f>S2/$B2</f>
+      <c r="V2" s="99">
+        <f>U2/$B2</f>
         <v>5.9191566618031675E-2</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <f>SUM('12411-0012'!AU7:AY7)</f>
         <v>752246</v>
       </c>
-      <c r="V2" s="107">
-        <f>U2/$B2</f>
+      <c r="X2" s="99">
+        <f>W2/$B2</f>
         <v>6.7956435018532393E-2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <f>SUM('12411-0012'!AZ7:BD7)</f>
         <v>907690</v>
       </c>
-      <c r="X2" s="107">
-        <f>W2/$B2</f>
+      <c r="Z2" s="99">
+        <f>Y2/$B2</f>
         <v>8.199894250281381E-2</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <f>SUM('12411-0012'!BE7:BI7)</f>
         <v>856104</v>
       </c>
-      <c r="Z2" s="107">
-        <f>Y2/$B2</f>
+      <c r="AB2" s="99">
+        <f>AA2/$B2</f>
         <v>7.7338763974957203E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <f>SUM('12411-0012'!BJ7:BN7)</f>
         <v>700225</v>
       </c>
-      <c r="AB2" s="107">
-        <f>AA2/$B2</f>
+      <c r="AD2" s="99">
+        <f>AC2/$B2</f>
         <v>6.3256959439933008E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <f>SUM('12411-0012'!BO7:BS7)</f>
         <v>594524</v>
       </c>
-      <c r="AD2" s="107">
-        <f>AC2/$B2</f>
+      <c r="AF2" s="99">
+        <f>AE2/$B2</f>
         <v>5.3708137461625526E-2</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f>SUM('12411-0012'!BT7:BX7)</f>
         <v>450012</v>
       </c>
-      <c r="AF2" s="107">
-        <f>AE2/$B2</f>
+      <c r="AH2" s="99">
+        <f>AG2/$B2</f>
         <v>4.0653205514631918E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f>SUM('12411-0012'!BY7:CC7)</f>
         <v>503644</v>
       </c>
-      <c r="AH2" s="107">
-        <f>AG2/$B2</f>
+      <c r="AJ2" s="99">
+        <f>AI2/$B2</f>
         <v>4.5498215688051159E-2</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f>SUM('12411-0012'!CD7:CH7)</f>
         <v>390048</v>
       </c>
-      <c r="AJ2" s="107">
-        <f>AI2/$B2</f>
+      <c r="AL2" s="99">
+        <f>AK2/$B2</f>
         <v>3.5236174823273937E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f>SUM('12411-0012'!CI7:CN7)</f>
         <v>293983</v>
       </c>
-      <c r="AL2" s="107">
-        <f>AK2/$B2</f>
-        <v>2.6557850272455035E-2</v>
+      <c r="AN2" s="99">
+        <f>1-C2</f>
+        <v>3.6079841850600314E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="str">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="str">
         <f>'12411-0012'!A8</f>
         <v>Bayern</v>
       </c>
-      <c r="B3" s="110">
+      <c r="B3" s="102">
         <f>'12411-0012'!CO8</f>
         <v>13076721</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="113">
+        <f t="shared" ref="C3:C17" si="0">SUM(F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3)</f>
+        <v>0.96509010171586584</v>
+      </c>
+      <c r="D3" s="113">
+        <f t="shared" ref="D3:D17" si="1">C3+AN3</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
         <f>SUM('12411-0012'!B8:F8)</f>
         <v>628007</v>
       </c>
-      <c r="D3" s="107">
-        <f t="shared" ref="D3:F17" si="0">C3/$B3</f>
+      <c r="F3" s="99">
+        <f t="shared" ref="F3:H17" si="2">E3/$B3</f>
         <v>4.8024806830397317E-2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <f>SUM('12411-0012'!G8:K8)</f>
         <v>572897</v>
       </c>
-      <c r="F3" s="107">
-        <f t="shared" si="0"/>
+      <c r="H3" s="99">
+        <f t="shared" si="2"/>
         <v>4.3810447588504796E-2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <f>SUM('12411-0012'!L8:P8)</f>
         <v>578203</v>
       </c>
-      <c r="H3" s="107">
-        <f t="shared" ref="H3" si="1">G3/$B3</f>
+      <c r="J3" s="99">
+        <f t="shared" ref="J3" si="3">I3/$B3</f>
         <v>4.4216206799854489E-2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <f>SUM('12411-0012'!R8:U8)</f>
         <v>519896</v>
       </c>
-      <c r="J3" s="107">
-        <f t="shared" ref="J3" si="2">I3/$B3</f>
+      <c r="L3" s="99">
+        <f t="shared" ref="L3" si="4">K3/$B3</f>
         <v>3.9757367309434834E-2</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <f>SUM('12411-0012'!V8:Z8)</f>
         <v>770917</v>
       </c>
-      <c r="L3" s="107">
-        <f t="shared" ref="L3" si="3">K3/$B3</f>
+      <c r="N3" s="99">
+        <f t="shared" ref="N3" si="5">M3/$B3</f>
         <v>5.8953387473817023E-2</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <f>SUM('12411-0012'!AA8:AE8)</f>
         <v>868040</v>
       </c>
-      <c r="N3" s="107">
-        <f t="shared" ref="N3" si="4">M3/$B3</f>
+      <c r="P3" s="99">
+        <f t="shared" ref="P3" si="6">O3/$B3</f>
         <v>6.638055518657926E-2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <f>SUM('12411-0012'!AF8:AJ8)</f>
         <v>868872</v>
       </c>
-      <c r="P3" s="107">
-        <f t="shared" ref="P3" si="5">O3/$B3</f>
+      <c r="R3" s="99">
+        <f t="shared" ref="R3" si="7">Q3/$B3</f>
         <v>6.6444179699176875E-2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <f>SUM('12411-0012'!AK8:AO8)</f>
         <v>849054</v>
       </c>
-      <c r="R3" s="107">
-        <f t="shared" ref="R3" si="6">Q3/$B3</f>
+      <c r="T3" s="99">
+        <f t="shared" ref="T3" si="8">S3/$B3</f>
         <v>6.492866216232647E-2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f>SUM('12411-0012'!AP8:AT8)</f>
         <v>794825</v>
       </c>
-      <c r="T3" s="107">
-        <f t="shared" ref="T3" si="7">S3/$B3</f>
+      <c r="V3" s="99">
+        <f t="shared" ref="V3" si="9">U3/$B3</f>
         <v>6.0781674549759072E-2</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <f>SUM('12411-0012'!AU8:AY8)</f>
         <v>906380</v>
       </c>
-      <c r="V3" s="107">
-        <f t="shared" ref="V3" si="8">U3/$B3</f>
+      <c r="X3" s="99">
+        <f t="shared" ref="X3" si="10">W3/$B3</f>
         <v>6.9312482846426104E-2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <f>SUM('12411-0012'!AZ8:BD8)</f>
         <v>1089004</v>
       </c>
-      <c r="X3" s="107">
-        <f t="shared" ref="X3" si="9">W3/$B3</f>
+      <c r="Z3" s="99">
+        <f t="shared" ref="Z3" si="11">Y3/$B3</f>
         <v>8.327806336160265E-2</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <f>SUM('12411-0012'!BE8:BI8)</f>
         <v>1019706</v>
       </c>
-      <c r="Z3" s="107">
-        <f t="shared" ref="Z3" si="10">Y3/$B3</f>
+      <c r="AB3" s="99">
+        <f t="shared" ref="AB3" si="12">AA3/$B3</f>
         <v>7.7978722647672916E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <f>SUM('12411-0012'!BJ8:BN8)</f>
         <v>828922</v>
       </c>
-      <c r="AB3" s="107">
-        <f t="shared" ref="AB3" si="11">AA3/$B3</f>
+      <c r="AD3" s="99">
+        <f t="shared" ref="AD3" si="13">AC3/$B3</f>
         <v>6.3389132489712063E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <f>SUM('12411-0012'!BO8:BS8)</f>
         <v>707775</v>
       </c>
-      <c r="AD3" s="107">
-        <f t="shared" ref="AD3" si="12">AC3/$B3</f>
+      <c r="AF3" s="99">
+        <f t="shared" ref="AF3" si="14">AE3/$B3</f>
         <v>5.4124806975693676E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <f>SUM('12411-0012'!BT8:BX8)</f>
         <v>564107</v>
       </c>
-      <c r="AF3" s="107">
-        <f t="shared" ref="AF3" si="13">AE3/$B3</f>
+      <c r="AH3" s="99">
+        <f t="shared" ref="AH3" si="15">AG3/$B3</f>
         <v>4.3138260730652585E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <f>SUM('12411-0012'!BY8:CC8)</f>
         <v>606046</v>
       </c>
-      <c r="AH3" s="107">
-        <f t="shared" ref="AH3" si="14">AG3/$B3</f>
+      <c r="AJ3" s="99">
+        <f t="shared" ref="AJ3" si="16">AI3/$B3</f>
         <v>4.6345410290546077E-2</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <f>SUM('12411-0012'!CD8:CH8)</f>
         <v>447563</v>
       </c>
-      <c r="AJ3" s="107">
-        <f t="shared" ref="AJ3" si="15">AI3/$B3</f>
+      <c r="AL3" s="99">
+        <f t="shared" ref="AL3" si="17">AK3/$B3</f>
         <v>3.4225934773709707E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <f>SUM('12411-0012'!CI8:CN8)</f>
         <v>337073</v>
       </c>
-      <c r="AL3" s="107">
-        <f t="shared" ref="AL3" si="16">AK3/$B3</f>
-        <v>2.5776568912038424E-2</v>
+      <c r="AN3" s="99">
+        <f t="shared" ref="AN3:AN17" si="18">1-C3</f>
+        <v>3.4909898284134155E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="str">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="str">
         <f>'12411-0012'!A9</f>
         <v>Berlin</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="102">
         <f>'12411-0012'!CO9</f>
         <v>3644826</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="113">
+        <f t="shared" si="0"/>
+        <v>0.97053713949582243</v>
+      </c>
+      <c r="D4" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
         <f>SUM('12411-0012'!B9:F9)</f>
         <v>193088</v>
       </c>
-      <c r="D4" s="107">
-        <f t="shared" si="0"/>
+      <c r="F4" s="99">
+        <f t="shared" si="2"/>
         <v>5.2975917094533455E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f>SUM('12411-0012'!G9:K9)</f>
         <v>167404</v>
       </c>
-      <c r="F4" s="107">
-        <f t="shared" si="0"/>
+      <c r="H4" s="99">
+        <f t="shared" si="2"/>
         <v>4.5929215825391938E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f>SUM('12411-0012'!L9:P9)</f>
         <v>151676</v>
       </c>
-      <c r="H4" s="107">
-        <f t="shared" ref="H4" si="17">G4/$B4</f>
+      <c r="J4" s="99">
+        <f t="shared" ref="J4" si="19">I4/$B4</f>
         <v>4.1614057845285345E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f>SUM('12411-0012'!R9:U9)</f>
         <v>119395</v>
       </c>
-      <c r="J4" s="107">
-        <f t="shared" ref="J4" si="18">I4/$B4</f>
+      <c r="L4" s="99">
+        <f t="shared" ref="L4" si="20">K4/$B4</f>
         <v>3.2757393631410663E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f>SUM('12411-0012'!V9:Z9)</f>
         <v>200052</v>
       </c>
-      <c r="L4" s="107">
-        <f t="shared" ref="L4" si="19">K4/$B4</f>
+      <c r="N4" s="99">
+        <f t="shared" ref="N4" si="21">M4/$B4</f>
         <v>5.4886570716956039E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f>SUM('12411-0012'!AA9:AE9)</f>
         <v>288455</v>
       </c>
-      <c r="N4" s="107">
-        <f t="shared" ref="N4" si="20">M4/$B4</f>
+      <c r="P4" s="99">
+        <f t="shared" ref="P4" si="22">O4/$B4</f>
         <v>7.9140952133243125E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f>SUM('12411-0012'!AF9:AJ9)</f>
         <v>326159</v>
       </c>
-      <c r="P4" s="107">
-        <f t="shared" ref="P4" si="21">O4/$B4</f>
+      <c r="R4" s="99">
+        <f t="shared" ref="R4" si="23">Q4/$B4</f>
         <v>8.9485478867852672E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f>SUM('12411-0012'!AK9:AO9)</f>
         <v>285694</v>
       </c>
-      <c r="R4" s="107">
-        <f t="shared" ref="R4" si="22">Q4/$B4</f>
+      <c r="T4" s="99">
+        <f t="shared" ref="T4" si="24">S4/$B4</f>
         <v>7.8383439977655997E-2</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f>SUM('12411-0012'!AP9:AT9)</f>
         <v>230882</v>
       </c>
-      <c r="T4" s="107">
-        <f t="shared" ref="T4" si="23">S4/$B4</f>
+      <c r="V4" s="99">
+        <f t="shared" ref="V4" si="25">U4/$B4</f>
         <v>6.334513636590608E-2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f>SUM('12411-0012'!AU9:AY9)</f>
         <v>228955</v>
       </c>
-      <c r="V4" s="107">
-        <f t="shared" ref="V4" si="24">U4/$B4</f>
+      <c r="X4" s="99">
+        <f t="shared" ref="X4" si="26">W4/$B4</f>
         <v>6.2816441717656754E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <f>SUM('12411-0012'!AZ9:BD9)</f>
         <v>271426</v>
       </c>
-      <c r="X4" s="107">
-        <f t="shared" ref="X4" si="25">W4/$B4</f>
+      <c r="Z4" s="99">
+        <f t="shared" ref="Z4" si="27">Y4/$B4</f>
         <v>7.4468849816150345E-2</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <f>SUM('12411-0012'!BE9:BI9)</f>
         <v>254720</v>
       </c>
-      <c r="Z4" s="107">
-        <f t="shared" ref="Z4" si="26">Y4/$B4</f>
+      <c r="AB4" s="99">
+        <f t="shared" ref="AB4" si="28">AA4/$B4</f>
         <v>6.9885366269885035E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <f>SUM('12411-0012'!BJ9:BN9)</f>
         <v>199325</v>
       </c>
-      <c r="AB4" s="107">
-        <f t="shared" ref="AB4" si="27">AA4/$B4</f>
+      <c r="AD4" s="99">
+        <f t="shared" ref="AD4" si="29">AC4/$B4</f>
         <v>5.4687109892214335E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <f>SUM('12411-0012'!BO9:BS9)</f>
         <v>183578</v>
       </c>
-      <c r="AD4" s="107">
-        <f t="shared" ref="AD4" si="28">AC4/$B4</f>
+      <c r="AF4" s="99">
+        <f t="shared" ref="AF4" si="30">AE4/$B4</f>
         <v>5.0366739043235534E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <f>SUM('12411-0012'!BT9:BX9)</f>
         <v>145091</v>
       </c>
-      <c r="AF4" s="107">
-        <f t="shared" ref="AF4" si="29">AE4/$B4</f>
+      <c r="AH4" s="99">
+        <f t="shared" ref="AH4" si="31">AG4/$B4</f>
         <v>3.9807387238787253E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <f>SUM('12411-0012'!BY9:CC9)</f>
         <v>172368</v>
       </c>
-      <c r="AH4" s="107">
-        <f t="shared" ref="AH4" si="30">AG4/$B4</f>
+      <c r="AJ4" s="99">
+        <f t="shared" ref="AJ4" si="32">AI4/$B4</f>
         <v>4.7291146408635146E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <f>SUM('12411-0012'!CD9:CH9)</f>
         <v>119171</v>
       </c>
-      <c r="AJ4" s="107">
-        <f t="shared" ref="AJ4" si="31">AI4/$B4</f>
+      <c r="AL4" s="99">
+        <f t="shared" ref="AL4" si="33">AK4/$B4</f>
         <v>3.2695936651022571E-2</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <f>SUM('12411-0012'!CI9:CN9)</f>
         <v>79356</v>
       </c>
-      <c r="AL4" s="107">
-        <f t="shared" ref="AL4" si="32">AK4/$B4</f>
-        <v>2.1772232748559189E-2</v>
+      <c r="AN4" s="99">
+        <f t="shared" si="18"/>
+        <v>2.9462860504177568E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="str">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="str">
         <f>'12411-0012'!A10</f>
         <v>Brandenburg</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="102">
         <f>'12411-0012'!CO10</f>
         <v>2511917</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96235504596688504</v>
+      </c>
+      <c r="D5" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
         <f>SUM('12411-0012'!B10:F10)</f>
         <v>108792</v>
       </c>
-      <c r="D5" s="107">
-        <f t="shared" si="0"/>
+      <c r="F5" s="99">
+        <f t="shared" si="2"/>
         <v>4.3310348232047477E-2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f>SUM('12411-0012'!G10:K10)</f>
         <v>112066</v>
       </c>
-      <c r="F5" s="107">
-        <f t="shared" si="0"/>
+      <c r="H5" s="99">
+        <f t="shared" si="2"/>
         <v>4.461373524682543E-2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f>SUM('12411-0012'!L10:P10)</f>
         <v>108852</v>
       </c>
-      <c r="H5" s="107">
-        <f t="shared" ref="H5" si="33">G5/$B5</f>
+      <c r="J5" s="99">
+        <f t="shared" ref="J5" si="34">I5/$B5</f>
         <v>4.3334234371597467E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f>SUM('12411-0012'!R10:U10)</f>
         <v>83223</v>
       </c>
-      <c r="J5" s="107">
-        <f t="shared" ref="J5" si="34">I5/$B5</f>
+      <c r="L5" s="99">
+        <f t="shared" ref="L5" si="35">K5/$B5</f>
         <v>3.3131269862817919E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f>SUM('12411-0012'!V10:Z10)</f>
         <v>85581</v>
       </c>
-      <c r="L5" s="107">
-        <f t="shared" ref="L5" si="35">K5/$B5</f>
+      <c r="N5" s="99">
+        <f t="shared" ref="N5" si="36">M5/$B5</f>
         <v>3.4069995147132645E-2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f>SUM('12411-0012'!AA10:AE10)</f>
         <v>103438</v>
       </c>
-      <c r="N5" s="107">
-        <f t="shared" ref="N5" si="36">M5/$B5</f>
+      <c r="P5" s="99">
+        <f t="shared" ref="P5" si="37">O5/$B5</f>
         <v>4.1178908379536423E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f>SUM('12411-0012'!AF10:AJ10)</f>
         <v>152714</v>
       </c>
-      <c r="P5" s="107">
-        <f t="shared" ref="P5" si="37">O5/$B5</f>
+      <c r="R5" s="99">
+        <f t="shared" ref="R5" si="38">Q5/$B5</f>
         <v>6.0795798587294086E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f>SUM('12411-0012'!AK10:AO10)</f>
         <v>159344</v>
       </c>
-      <c r="R5" s="107">
-        <f t="shared" ref="R5" si="38">Q5/$B5</f>
+      <c r="T5" s="99">
+        <f t="shared" ref="T5" si="39">S5/$B5</f>
         <v>6.3435217007568323E-2</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f>SUM('12411-0012'!AP10:AT10)</f>
         <v>143472</v>
       </c>
-      <c r="T5" s="107">
-        <f t="shared" ref="T5" si="39">S5/$B5</f>
+      <c r="V5" s="99">
+        <f t="shared" ref="V5" si="40">U5/$B5</f>
         <v>5.7116536891943487E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f>SUM('12411-0012'!AU10:AY10)</f>
         <v>163732</v>
       </c>
-      <c r="V5" s="107">
-        <f t="shared" ref="V5" si="40">U5/$B5</f>
+      <c r="X5" s="99">
+        <f t="shared" ref="X5" si="41">W5/$B5</f>
         <v>6.5182090013324478E-2</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <f>SUM('12411-0012'!AZ10:BD10)</f>
         <v>218065</v>
       </c>
-      <c r="X5" s="107">
-        <f t="shared" ref="X5" si="41">W5/$B5</f>
+      <c r="Z5" s="99">
+        <f t="shared" ref="Z5" si="42">Y5/$B5</f>
         <v>8.6812183682820732E-2</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <f>SUM('12411-0012'!BE10:BI10)</f>
         <v>237367</v>
       </c>
-      <c r="Z5" s="107">
-        <f t="shared" ref="Z5" si="42">Y5/$B5</f>
+      <c r="AB5" s="99">
+        <f t="shared" ref="AB5" si="43">AA5/$B5</f>
         <v>9.4496354776053504E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <f>SUM('12411-0012'!BJ10:BN10)</f>
         <v>199214</v>
       </c>
-      <c r="AB5" s="107">
-        <f t="shared" ref="AB5" si="43">AA5/$B5</f>
+      <c r="AD5" s="99">
+        <f t="shared" ref="AD5" si="44">AC5/$B5</f>
         <v>7.9307556738538731E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <f>SUM('12411-0012'!BO10:BS10)</f>
         <v>172455</v>
       </c>
-      <c r="AD5" s="107">
-        <f t="shared" ref="AD5" si="44">AC5/$B5</f>
+      <c r="AF5" s="99">
+        <f t="shared" ref="AF5" si="45">AE5/$B5</f>
         <v>6.8654736601567651E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f>SUM('12411-0012'!BT10:BX10)</f>
         <v>107082</v>
       </c>
-      <c r="AF5" s="107">
-        <f t="shared" ref="AF5" si="45">AE5/$B5</f>
+      <c r="AH5" s="99">
+        <f t="shared" ref="AH5" si="46">AG5/$B5</f>
         <v>4.2629593254872672E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f>SUM('12411-0012'!BY10:CC10)</f>
         <v>150852</v>
       </c>
-      <c r="AH5" s="107">
-        <f t="shared" ref="AH5" si="46">AG5/$B5</f>
+      <c r="AJ5" s="99">
+        <f t="shared" ref="AJ5" si="47">AI5/$B5</f>
         <v>6.0054532056592634E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f>SUM('12411-0012'!CD10:CH10)</f>
         <v>111107</v>
       </c>
-      <c r="AJ5" s="107">
-        <f t="shared" ref="AJ5" si="47">AI5/$B5</f>
+      <c r="AL5" s="99">
+        <f t="shared" ref="AL5" si="48">AK5/$B5</f>
         <v>4.4231955116351376E-2</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <f>SUM('12411-0012'!CI10:CN10)</f>
         <v>73373</v>
       </c>
-      <c r="AL5" s="107">
-        <f t="shared" ref="AL5" si="48">AK5/$B5</f>
-        <v>2.920996195336072E-2</v>
+      <c r="AN5" s="99">
+        <f t="shared" si="18"/>
+        <v>3.7644954033114963E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="str">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="str">
         <f>'12411-0012'!A11</f>
         <v>Bremen</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="102">
         <f>'12411-0012'!CO11</f>
         <v>682986</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="113">
+        <f t="shared" si="0"/>
+        <v>0.9641603195380285</v>
+      </c>
+      <c r="D6" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
         <f>SUM('12411-0012'!B11:F11)</f>
         <v>33582</v>
       </c>
-      <c r="D6" s="107">
-        <f t="shared" si="0"/>
+      <c r="F6" s="99">
+        <f t="shared" si="2"/>
         <v>4.9169382681343396E-2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f>SUM('12411-0012'!G11:K11)</f>
         <v>29064</v>
       </c>
-      <c r="F6" s="107">
-        <f t="shared" si="0"/>
+      <c r="H6" s="99">
+        <f t="shared" si="2"/>
         <v>4.2554312972740288E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f>SUM('12411-0012'!L11:P11)</f>
         <v>29431</v>
       </c>
-      <c r="H6" s="107">
-        <f t="shared" ref="H6" si="49">G6/$B6</f>
+      <c r="J6" s="99">
+        <f t="shared" ref="J6" si="49">I6/$B6</f>
         <v>4.3091659272664444E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f>SUM('12411-0012'!R11:U11)</f>
         <v>26837</v>
       </c>
-      <c r="J6" s="107">
-        <f t="shared" ref="J6" si="50">I6/$B6</f>
+      <c r="L6" s="99">
+        <f t="shared" ref="L6" si="50">K6/$B6</f>
         <v>3.9293631201810869E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f>SUM('12411-0012'!V11:Z11)</f>
         <v>44882</v>
       </c>
-      <c r="L6" s="107">
-        <f t="shared" ref="L6" si="51">K6/$B6</f>
+      <c r="N6" s="99">
+        <f t="shared" ref="N6" si="51">M6/$B6</f>
         <v>6.5714377747128058E-2</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f>SUM('12411-0012'!AA11:AE11)</f>
         <v>50103</v>
       </c>
-      <c r="N6" s="107">
-        <f t="shared" ref="N6" si="52">M6/$B6</f>
+      <c r="P6" s="99">
+        <f t="shared" ref="P6" si="52">O6/$B6</f>
         <v>7.3358751131062716E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f>SUM('12411-0012'!AF11:AJ11)</f>
         <v>48238</v>
       </c>
-      <c r="P6" s="107">
-        <f t="shared" ref="P6" si="53">O6/$B6</f>
+      <c r="R6" s="99">
+        <f t="shared" ref="R6" si="53">Q6/$B6</f>
         <v>7.0628094865780561E-2</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f>SUM('12411-0012'!AK11:AO11)</f>
         <v>43899</v>
       </c>
-      <c r="R6" s="107">
-        <f t="shared" ref="R6" si="54">Q6/$B6</f>
+      <c r="T6" s="99">
+        <f t="shared" ref="T6" si="54">S6/$B6</f>
         <v>6.4275109592290325E-2</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f>SUM('12411-0012'!AP11:AT11)</f>
         <v>39725</v>
       </c>
-      <c r="T6" s="107">
-        <f t="shared" ref="T6" si="55">S6/$B6</f>
+      <c r="V6" s="99">
+        <f t="shared" ref="V6" si="55">U6/$B6</f>
         <v>5.8163710529937657E-2</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f>SUM('12411-0012'!AU11:AY11)</f>
         <v>43955</v>
       </c>
-      <c r="V6" s="107">
-        <f t="shared" ref="V6" si="56">U6/$B6</f>
+      <c r="X6" s="99">
+        <f t="shared" ref="X6" si="56">W6/$B6</f>
         <v>6.4357102488191556E-2</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f>SUM('12411-0012'!AZ11:BD11)</f>
         <v>53056</v>
       </c>
-      <c r="X6" s="107">
-        <f t="shared" ref="X6" si="57">W6/$B6</f>
+      <c r="Z6" s="99">
+        <f t="shared" ref="Z6" si="57">Y6/$B6</f>
         <v>7.7682412230997408E-2</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <f>SUM('12411-0012'!BE11:BI11)</f>
         <v>48888</v>
       </c>
-      <c r="Z6" s="107">
-        <f t="shared" ref="Z6" si="58">Y6/$B6</f>
+      <c r="AB6" s="99">
+        <f t="shared" ref="AB6" si="58">AA6/$B6</f>
         <v>7.1579798121777019E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <f>SUM('12411-0012'!BJ11:BN11)</f>
         <v>41482</v>
       </c>
-      <c r="AB6" s="107">
-        <f t="shared" ref="AB6" si="59">AA6/$B6</f>
+      <c r="AD6" s="99">
+        <f t="shared" ref="AD6" si="59">AC6/$B6</f>
         <v>6.0736237638838862E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <f>SUM('12411-0012'!BO11:BS11)</f>
         <v>36719</v>
       </c>
-      <c r="AD6" s="107">
-        <f t="shared" ref="AD6" si="60">AC6/$B6</f>
+      <c r="AF6" s="99">
+        <f t="shared" ref="AF6" si="60">AE6/$B6</f>
         <v>5.3762449010667859E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f>SUM('12411-0012'!BT11:BX11)</f>
         <v>30534</v>
       </c>
-      <c r="AF6" s="107">
-        <f t="shared" ref="AF6" si="61">AE6/$B6</f>
+      <c r="AH6" s="99">
+        <f t="shared" ref="AH6" si="61">AG6/$B6</f>
         <v>4.4706626490147672E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f>SUM('12411-0012'!BY11:CC11)</f>
         <v>32879</v>
       </c>
-      <c r="AH6" s="107">
-        <f t="shared" ref="AH6" si="62">AG6/$B6</f>
+      <c r="AJ6" s="99">
+        <f t="shared" ref="AJ6" si="62">AI6/$B6</f>
         <v>4.8140079006011839E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f>SUM('12411-0012'!CD11:CH11)</f>
         <v>25234</v>
       </c>
-      <c r="AJ6" s="107">
-        <f t="shared" ref="AJ6" si="63">AI6/$B6</f>
+      <c r="AL6" s="99">
+        <f t="shared" ref="AL6" si="63">AK6/$B6</f>
         <v>3.694658455663806E-2</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <f>SUM('12411-0012'!CI11:CN11)</f>
         <v>18609</v>
       </c>
-      <c r="AL6" s="107">
-        <f t="shared" ref="AL6" si="64">AK6/$B6</f>
-        <v>2.7246532139751034E-2</v>
+      <c r="AN6" s="99">
+        <f t="shared" si="18"/>
+        <v>3.5839680461971501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="str">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="str">
         <f>'12411-0012'!A12</f>
         <v>Hamburg</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="102">
         <f>'12411-0012'!CO12</f>
         <v>1841179</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96792490029486544</v>
+      </c>
+      <c r="D7" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
         <f>SUM('12411-0012'!B12:F12)</f>
         <v>99075</v>
       </c>
-      <c r="D7" s="107">
-        <f t="shared" si="0"/>
+      <c r="F7" s="99">
+        <f t="shared" si="2"/>
         <v>5.3810628950254159E-2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f>SUM('12411-0012'!G12:K12)</f>
         <v>82819</v>
       </c>
-      <c r="F7" s="107">
-        <f t="shared" si="0"/>
+      <c r="H7" s="99">
+        <f t="shared" si="2"/>
         <v>4.4981503699531661E-2</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f>SUM('12411-0012'!L12:P12)</f>
         <v>78729</v>
       </c>
-      <c r="H7" s="107">
-        <f t="shared" ref="H7" si="65">G7/$B7</f>
+      <c r="J7" s="99">
+        <f t="shared" ref="J7" si="64">I7/$B7</f>
         <v>4.276010100050022E-2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <f>SUM('12411-0012'!R12:U12)</f>
         <v>65215</v>
       </c>
-      <c r="J7" s="107">
-        <f t="shared" ref="J7" si="66">I7/$B7</f>
+      <c r="L7" s="99">
+        <f t="shared" ref="L7" si="65">K7/$B7</f>
         <v>3.5420238879544035E-2</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f>SUM('12411-0012'!V12:Z12)</f>
         <v>112486</v>
       </c>
-      <c r="L7" s="107">
-        <f t="shared" ref="L7" si="67">K7/$B7</f>
+      <c r="N7" s="99">
+        <f t="shared" ref="N7" si="66">M7/$B7</f>
         <v>6.1094548656051365E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f>SUM('12411-0012'!AA12:AE12)</f>
         <v>148012</v>
       </c>
-      <c r="N7" s="107">
-        <f t="shared" ref="N7" si="68">M7/$B7</f>
+      <c r="P7" s="99">
+        <f t="shared" ref="P7" si="67">O7/$B7</f>
         <v>8.0389793713701932E-2</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f>SUM('12411-0012'!AF12:AJ12)</f>
         <v>153975</v>
       </c>
-      <c r="P7" s="107">
-        <f t="shared" ref="P7" si="69">O7/$B7</f>
+      <c r="R7" s="99">
+        <f t="shared" ref="R7" si="68">Q7/$B7</f>
         <v>8.3628479360236027E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f>SUM('12411-0012'!AK12:AO12)</f>
         <v>141244</v>
       </c>
-      <c r="R7" s="107">
-        <f t="shared" ref="R7" si="70">Q7/$B7</f>
+      <c r="T7" s="99">
+        <f t="shared" ref="T7" si="69">S7/$B7</f>
         <v>7.6713888220536944E-2</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f>SUM('12411-0012'!AP12:AT12)</f>
         <v>123205</v>
       </c>
-      <c r="T7" s="107">
-        <f t="shared" ref="T7" si="71">S7/$B7</f>
+      <c r="V7" s="99">
+        <f t="shared" ref="V7" si="70">U7/$B7</f>
         <v>6.6916361744295369E-2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f>SUM('12411-0012'!AU12:AY12)</f>
         <v>125082</v>
       </c>
-      <c r="V7" s="107">
-        <f t="shared" ref="V7" si="72">U7/$B7</f>
+      <c r="X7" s="99">
+        <f t="shared" ref="X7" si="71">W7/$B7</f>
         <v>6.7935817212775071E-2</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f>SUM('12411-0012'!AZ12:BD12)</f>
         <v>143394</v>
       </c>
-      <c r="X7" s="107">
-        <f t="shared" ref="X7" si="73">W7/$B7</f>
+      <c r="Z7" s="99">
+        <f t="shared" ref="Z7" si="72">Y7/$B7</f>
         <v>7.7881618245700168E-2</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <f>SUM('12411-0012'!BE12:BI12)</f>
         <v>121805</v>
       </c>
-      <c r="Z7" s="107">
-        <f t="shared" ref="Z7" si="74">Y7/$B7</f>
+      <c r="AB7" s="99">
+        <f t="shared" ref="AB7" si="73">AA7/$B7</f>
         <v>6.6155979402328619E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <f>SUM('12411-0012'!BJ12:BN12)</f>
         <v>94725</v>
       </c>
-      <c r="AB7" s="107">
-        <f t="shared" ref="AB7" si="75">AA7/$B7</f>
+      <c r="AD7" s="99">
+        <f t="shared" ref="AD7" si="74">AC7/$B7</f>
         <v>5.1448012387714612E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <f>SUM('12411-0012'!BO12:BS12)</f>
         <v>81696</v>
       </c>
-      <c r="AD7" s="107">
-        <f t="shared" ref="AD7" si="76">AC7/$B7</f>
+      <c r="AF7" s="99">
+        <f t="shared" ref="AF7" si="75">AE7/$B7</f>
         <v>4.4371568435225474E-2</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <f>SUM('12411-0012'!BT12:BX12)</f>
         <v>72704</v>
       </c>
-      <c r="AF7" s="107">
-        <f t="shared" ref="AF7" si="77">AE7/$B7</f>
+      <c r="AH7" s="99">
+        <f t="shared" ref="AH7" si="76">AG7/$B7</f>
         <v>3.9487741278821882E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f>SUM('12411-0012'!BY12:CC12)</f>
         <v>78876</v>
       </c>
-      <c r="AH7" s="107">
-        <f t="shared" ref="AH7" si="78">AG7/$B7</f>
+      <c r="AJ7" s="99">
+        <f t="shared" ref="AJ7" si="77">AI7/$B7</f>
         <v>4.2839941146406733E-2</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f>SUM('12411-0012'!CD12:CH12)</f>
         <v>59081</v>
       </c>
-      <c r="AJ7" s="107">
-        <f t="shared" ref="AJ7" si="79">AI7/$B7</f>
+      <c r="AL7" s="99">
+        <f t="shared" ref="AL7" si="78">AK7/$B7</f>
         <v>3.2088677961241138E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <f>SUM('12411-0012'!CI12:CN12)</f>
         <v>43898</v>
       </c>
-      <c r="AL7" s="107">
-        <f t="shared" ref="AL7" si="80">AK7/$B7</f>
-        <v>2.3842331462611728E-2</v>
+      <c r="AN7" s="99">
+        <f t="shared" si="18"/>
+        <v>3.2075099705134558E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="109" t="str">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="str">
         <f>'12411-0012'!A13</f>
         <v>Hessen</v>
       </c>
-      <c r="B8" s="110">
+      <c r="B8" s="102">
         <f>'12411-0012'!CO13</f>
         <v>6265809</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96438975398069093</v>
+      </c>
+      <c r="D8" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
         <f>SUM('12411-0012'!B13:F13)</f>
         <v>302453</v>
       </c>
-      <c r="D8" s="107">
-        <f t="shared" si="0"/>
+      <c r="F8" s="99">
+        <f t="shared" si="2"/>
         <v>4.8270382962519287E-2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f>SUM('12411-0012'!G13:K13)</f>
         <v>281831</v>
       </c>
-      <c r="F8" s="107">
-        <f t="shared" si="0"/>
+      <c r="H8" s="99">
+        <f t="shared" si="2"/>
         <v>4.4979187843102141E-2</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f>SUM('12411-0012'!L13:P13)</f>
         <v>286364</v>
       </c>
-      <c r="H8" s="107">
-        <f t="shared" ref="H8" si="81">G8/$B8</f>
+      <c r="J8" s="99">
+        <f t="shared" ref="J8" si="79">I8/$B8</f>
         <v>4.5702637919540795E-2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f>SUM('12411-0012'!R13:U13)</f>
         <v>249508</v>
       </c>
-      <c r="J8" s="107">
-        <f t="shared" ref="J8" si="82">I8/$B8</f>
+      <c r="L8" s="99">
+        <f t="shared" ref="L8" si="80">K8/$B8</f>
         <v>3.9820556292092531E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>SUM('12411-0012'!V13:Z13)</f>
         <v>366848</v>
       </c>
-      <c r="L8" s="107">
-        <f t="shared" ref="L8" si="83">K8/$B8</f>
+      <c r="N8" s="99">
+        <f t="shared" ref="N8" si="81">M8/$B8</f>
         <v>5.8547587390550847E-2</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f>SUM('12411-0012'!AA13:AE13)</f>
         <v>403359</v>
       </c>
-      <c r="N8" s="107">
-        <f t="shared" ref="N8" si="84">M8/$B8</f>
+      <c r="P8" s="99">
+        <f t="shared" ref="P8" si="82">O8/$B8</f>
         <v>6.4374608290804908E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f>SUM('12411-0012'!AF13:AJ13)</f>
         <v>404965</v>
       </c>
-      <c r="P8" s="107">
-        <f t="shared" ref="P8" si="85">O8/$B8</f>
+      <c r="R8" s="99">
+        <f t="shared" ref="R8" si="83">Q8/$B8</f>
         <v>6.4630919965801698E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f>SUM('12411-0012'!AK13:AO13)</f>
         <v>399505</v>
       </c>
-      <c r="R8" s="107">
-        <f t="shared" ref="R8" si="86">Q8/$B8</f>
+      <c r="T8" s="99">
+        <f t="shared" ref="T8" si="84">S8/$B8</f>
         <v>6.3759524109336885E-2</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f>SUM('12411-0012'!AP13:AT13)</f>
         <v>380120</v>
       </c>
-      <c r="T8" s="107">
-        <f t="shared" ref="T8" si="87">S8/$B8</f>
+      <c r="V8" s="99">
+        <f t="shared" ref="V8" si="85">U8/$B8</f>
         <v>6.0665749626265336E-2</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f>SUM('12411-0012'!AU13:AY13)</f>
         <v>433961</v>
       </c>
-      <c r="V8" s="107">
-        <f t="shared" ref="V8" si="88">U8/$B8</f>
+      <c r="X8" s="99">
+        <f t="shared" ref="X8" si="86">W8/$B8</f>
         <v>6.9258574591086322E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f>SUM('12411-0012'!AZ13:BD13)</f>
         <v>524501</v>
       </c>
-      <c r="X8" s="107">
-        <f t="shared" ref="X8" si="89">W8/$B8</f>
+      <c r="Z8" s="99">
+        <f t="shared" ref="Z8" si="87">Y8/$B8</f>
         <v>8.3708424562574435E-2</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <f>SUM('12411-0012'!BE13:BI13)</f>
         <v>484526</v>
       </c>
-      <c r="Z8" s="107">
-        <f t="shared" ref="Z8" si="90">Y8/$B8</f>
+      <c r="AB8" s="99">
+        <f t="shared" ref="AB8" si="88">AA8/$B8</f>
         <v>7.7328562042028412E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <f>SUM('12411-0012'!BJ13:BN13)</f>
         <v>397310</v>
       </c>
-      <c r="AB8" s="107">
-        <f t="shared" ref="AB8" si="91">AA8/$B8</f>
+      <c r="AD8" s="99">
+        <f t="shared" ref="AD8" si="89">AC8/$B8</f>
         <v>6.3409210207333158E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f>SUM('12411-0012'!BO13:BS13)</f>
         <v>348139</v>
       </c>
-      <c r="AD8" s="107">
-        <f t="shared" ref="AD8" si="92">AC8/$B8</f>
+      <c r="AF8" s="99">
+        <f t="shared" ref="AF8" si="90">AE8/$B8</f>
         <v>5.556170001351781E-2</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f>SUM('12411-0012'!BT13:BX13)</f>
         <v>272602</v>
       </c>
-      <c r="AF8" s="107">
-        <f t="shared" ref="AF8" si="93">AE8/$B8</f>
+      <c r="AH8" s="99">
+        <f t="shared" ref="AH8" si="91">AG8/$B8</f>
         <v>4.3506273491579463E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f>SUM('12411-0012'!BY13:CC13)</f>
         <v>288268</v>
       </c>
-      <c r="AH8" s="107">
-        <f t="shared" ref="AH8" si="94">AG8/$B8</f>
+      <c r="AJ8" s="99">
+        <f t="shared" ref="AJ8" si="92">AI8/$B8</f>
         <v>4.6006509295128527E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f>SUM('12411-0012'!CD13:CH13)</f>
         <v>218422</v>
       </c>
-      <c r="AJ8" s="107">
-        <f t="shared" ref="AJ8" si="95">AI8/$B8</f>
+      <c r="AL8" s="99">
+        <f t="shared" ref="AL8" si="93">AK8/$B8</f>
         <v>3.4859345377428519E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <f>SUM('12411-0012'!CI13:CN13)</f>
         <v>165315</v>
       </c>
-      <c r="AL8" s="107">
-        <f t="shared" ref="AL8" si="96">AK8/$B8</f>
-        <v>2.6383664104667092E-2</v>
+      <c r="AN8" s="99">
+        <f t="shared" si="18"/>
+        <v>3.5610246019309066E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="str">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="101" t="str">
         <f>'12411-0012'!A14</f>
         <v>Mecklenburg-Vorpommern</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="102">
         <f>'12411-0012'!CO14</f>
         <v>1609675</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96208240793949096</v>
+      </c>
+      <c r="D9" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
         <f>SUM('12411-0012'!B14:F14)</f>
         <v>68144</v>
       </c>
-      <c r="D9" s="107">
-        <f t="shared" si="0"/>
+      <c r="F9" s="99">
+        <f t="shared" si="2"/>
         <v>4.2334011524065414E-2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <f>SUM('12411-0012'!G14:K14)</f>
         <v>69735</v>
       </c>
-      <c r="F9" s="107">
-        <f t="shared" si="0"/>
+      <c r="H9" s="99">
+        <f t="shared" si="2"/>
         <v>4.3322409803221149E-2</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f>SUM('12411-0012'!L14:P14)</f>
         <v>67006</v>
       </c>
-      <c r="H9" s="107">
-        <f t="shared" ref="H9" si="97">G9/$B9</f>
+      <c r="J9" s="99">
+        <f t="shared" ref="J9" si="94">I9/$B9</f>
         <v>4.1627036513581933E-2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <f>SUM('12411-0012'!R14:U14)</f>
         <v>52926</v>
       </c>
-      <c r="J9" s="107">
-        <f t="shared" ref="J9" si="98">I9/$B9</f>
+      <c r="L9" s="99">
+        <f t="shared" ref="L9" si="95">K9/$B9</f>
         <v>3.2879929178250271E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f>SUM('12411-0012'!V14:Z14)</f>
         <v>60347</v>
       </c>
-      <c r="L9" s="107">
-        <f t="shared" ref="L9" si="99">K9/$B9</f>
+      <c r="N9" s="99">
+        <f t="shared" ref="N9" si="96">M9/$B9</f>
         <v>3.7490176588441768E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f>SUM('12411-0012'!AA14:AE14)</f>
         <v>76233</v>
       </c>
-      <c r="N9" s="107">
-        <f t="shared" ref="N9" si="100">M9/$B9</f>
+      <c r="P9" s="99">
+        <f t="shared" ref="P9" si="97">O9/$B9</f>
         <v>4.7359249537950204E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <f>SUM('12411-0012'!AF14:AJ14)</f>
         <v>105062</v>
       </c>
-      <c r="P9" s="107">
-        <f t="shared" ref="P9" si="101">O9/$B9</f>
+      <c r="R9" s="99">
+        <f t="shared" ref="R9" si="98">Q9/$B9</f>
         <v>6.5269076055725531E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <f>SUM('12411-0012'!AK14:AO14)</f>
         <v>101917</v>
       </c>
-      <c r="R9" s="107">
-        <f t="shared" ref="R9" si="102">Q9/$B9</f>
+      <c r="T9" s="99">
+        <f t="shared" ref="T9" si="99">S9/$B9</f>
         <v>6.3315265503906065E-2</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f>SUM('12411-0012'!AP14:AT14)</f>
         <v>87581</v>
       </c>
-      <c r="T9" s="107">
-        <f t="shared" ref="T9" si="103">S9/$B9</f>
+      <c r="V9" s="99">
+        <f t="shared" ref="V9" si="100">U9/$B9</f>
         <v>5.4409119853386555E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f>SUM('12411-0012'!AU14:AY14)</f>
         <v>96622</v>
       </c>
-      <c r="V9" s="107">
-        <f t="shared" ref="V9" si="104">U9/$B9</f>
+      <c r="X9" s="99">
+        <f t="shared" ref="X9" si="101">W9/$B9</f>
         <v>6.0025781601876153E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f>SUM('12411-0012'!AZ14:BD14)</f>
         <v>130252</v>
       </c>
-      <c r="X9" s="107">
-        <f t="shared" ref="X9" si="105">W9/$B9</f>
+      <c r="Z9" s="99">
+        <f t="shared" ref="Z9" si="102">Y9/$B9</f>
         <v>8.0918197772842343E-2</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <f>SUM('12411-0012'!BE14:BI14)</f>
         <v>149868</v>
       </c>
-      <c r="Z9" s="107">
-        <f t="shared" ref="Z9" si="106">Y9/$B9</f>
+      <c r="AB9" s="99">
+        <f t="shared" ref="AB9" si="103">AA9/$B9</f>
         <v>9.3104508674111228E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <f>SUM('12411-0012'!BJ14:BN14)</f>
         <v>133772</v>
       </c>
-      <c r="AB9" s="107">
-        <f t="shared" ref="AB9" si="107">AA9/$B9</f>
+      <c r="AD9" s="99">
+        <f t="shared" ref="AD9" si="104">AC9/$B9</f>
         <v>8.3104974606675264E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <f>SUM('12411-0012'!BO14:BS14)</f>
         <v>117159</v>
       </c>
-      <c r="AD9" s="107">
-        <f t="shared" ref="AD9" si="108">AC9/$B9</f>
+      <c r="AF9" s="99">
+        <f t="shared" ref="AF9" si="105">AE9/$B9</f>
         <v>7.2784257691770077E-2</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <f>SUM('12411-0012'!BT14:BX14)</f>
         <v>68071</v>
       </c>
-      <c r="AF9" s="107">
-        <f t="shared" ref="AF9" si="109">AE9/$B9</f>
+      <c r="AH9" s="99">
+        <f t="shared" ref="AH9" si="106">AG9/$B9</f>
         <v>4.2288660754500135E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f>SUM('12411-0012'!BY14:CC14)</f>
         <v>92654</v>
       </c>
-      <c r="AH9" s="107">
-        <f t="shared" ref="AH9" si="110">AG9/$B9</f>
+      <c r="AJ9" s="99">
+        <f t="shared" ref="AJ9" si="107">AI9/$B9</f>
         <v>5.7560687716464505E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f>SUM('12411-0012'!CD14:CH14)</f>
         <v>71291</v>
       </c>
-      <c r="AJ9" s="107">
-        <f t="shared" ref="AJ9" si="111">AI9/$B9</f>
+      <c r="AL9" s="99">
+        <f t="shared" ref="AL9" si="108">AK9/$B9</f>
         <v>4.4289064562722288E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <f>SUM('12411-0012'!CI14:CN14)</f>
         <v>47931</v>
       </c>
-      <c r="AL9" s="107">
-        <f t="shared" ref="AL9" si="112">AK9/$B9</f>
-        <v>2.9776818301831116E-2</v>
+      <c r="AN9" s="99">
+        <f t="shared" si="18"/>
+        <v>3.7917592060509042E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="str">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="str">
         <f>'12411-0012'!A15</f>
         <v>Niedersachsen</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="102">
         <f>'12411-0012'!CO15</f>
         <v>7982448</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96267586083868006</v>
+      </c>
+      <c r="D10" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
         <f>SUM('12411-0012'!B15:F15)</f>
         <v>370392</v>
       </c>
-      <c r="D10" s="107">
-        <f t="shared" si="0"/>
+      <c r="F10" s="99">
+        <f t="shared" si="2"/>
         <v>4.6400803362577493E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <f>SUM('12411-0012'!G15:K15)</f>
         <v>350592</v>
       </c>
-      <c r="F10" s="107">
-        <f t="shared" si="0"/>
+      <c r="H10" s="99">
+        <f t="shared" si="2"/>
         <v>4.3920361272632158E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <f>SUM('12411-0012'!L15:P15)</f>
         <v>368124</v>
       </c>
-      <c r="H10" s="107">
-        <f t="shared" ref="H10" si="113">G10/$B10</f>
+      <c r="J10" s="99">
+        <f t="shared" ref="J10" si="109">I10/$B10</f>
         <v>4.6116679995911028E-2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f>SUM('12411-0012'!R15:U15)</f>
         <v>339635</v>
       </c>
-      <c r="J10" s="107">
-        <f t="shared" ref="J10" si="114">I10/$B10</f>
+      <c r="L10" s="99">
+        <f t="shared" ref="L10" si="110">K10/$B10</f>
         <v>4.2547724708009375E-2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f>SUM('12411-0012'!V15:Z15)</f>
         <v>462228</v>
       </c>
-      <c r="L10" s="107">
-        <f t="shared" ref="L10" si="115">K10/$B10</f>
+      <c r="N10" s="99">
+        <f t="shared" ref="N10" si="111">M10/$B10</f>
         <v>5.7905544765214881E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f>SUM('12411-0012'!AA15:AE15)</f>
         <v>479311</v>
       </c>
-      <c r="N10" s="107">
-        <f t="shared" ref="N10" si="116">M10/$B10</f>
+      <c r="P10" s="99">
+        <f t="shared" ref="P10" si="112">O10/$B10</f>
         <v>6.0045615079484388E-2</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <f>SUM('12411-0012'!AF15:AJ15)</f>
         <v>473919</v>
       </c>
-      <c r="P10" s="107">
-        <f t="shared" ref="P10" si="117">O10/$B10</f>
+      <c r="R10" s="99">
+        <f t="shared" ref="R10" si="113">Q10/$B10</f>
         <v>5.9370133071959881E-2</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <f>SUM('12411-0012'!AK15:AO15)</f>
         <v>464325</v>
       </c>
-      <c r="R10" s="107">
-        <f t="shared" ref="R10" si="118">Q10/$B10</f>
+      <c r="T10" s="99">
+        <f t="shared" ref="T10" si="114">S10/$B10</f>
         <v>5.8168246132013636E-2</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f>SUM('12411-0012'!AP15:AT15)</f>
         <v>448884</v>
       </c>
-      <c r="T10" s="107">
-        <f t="shared" ref="T10" si="119">S10/$B10</f>
+      <c r="V10" s="99">
+        <f t="shared" ref="V10" si="115">U10/$B10</f>
         <v>5.6233877126415352E-2</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f>SUM('12411-0012'!AU15:AY15)</f>
         <v>548335</v>
       </c>
-      <c r="V10" s="107">
-        <f t="shared" ref="V10" si="120">U10/$B10</f>
+      <c r="X10" s="99">
+        <f t="shared" ref="X10" si="116">W10/$B10</f>
         <v>6.8692586534857478E-2</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <f>SUM('12411-0012'!AZ15:BD15)</f>
         <v>683764</v>
       </c>
-      <c r="X10" s="107">
-        <f t="shared" ref="X10" si="121">W10/$B10</f>
+      <c r="Z10" s="99">
+        <f t="shared" ref="Z10" si="117">Y10/$B10</f>
         <v>8.5658434605524525E-2</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <f>SUM('12411-0012'!BE15:BI15)</f>
         <v>639331</v>
       </c>
-      <c r="Z10" s="107">
-        <f t="shared" ref="Z10" si="122">Y10/$B10</f>
+      <c r="AB10" s="99">
+        <f t="shared" ref="AB10" si="118">AA10/$B10</f>
         <v>8.0092097060951731E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <f>SUM('12411-0012'!BJ15:BN15)</f>
         <v>526651</v>
       </c>
-      <c r="AB10" s="107">
-        <f t="shared" ref="AB10" si="123">AA10/$B10</f>
+      <c r="AD10" s="99">
+        <f t="shared" ref="AD10" si="119">AC10/$B10</f>
         <v>6.5976126621808254E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f>SUM('12411-0012'!BO15:BS15)</f>
         <v>467747</v>
       </c>
-      <c r="AD10" s="107">
-        <f t="shared" ref="AD10" si="124">AC10/$B10</f>
+      <c r="AF10" s="99">
+        <f t="shared" ref="AF10" si="120">AE10/$B10</f>
         <v>5.859693667907389E-2</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f>SUM('12411-0012'!BT15:BX15)</f>
         <v>357709</v>
       </c>
-      <c r="AF10" s="107">
-        <f t="shared" ref="AF10" si="125">AE10/$B10</f>
+      <c r="AH10" s="99">
+        <f t="shared" ref="AH10" si="121">AG10/$B10</f>
         <v>4.4811942401629175E-2</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f>SUM('12411-0012'!BY15:CC15)</f>
         <v>398213</v>
       </c>
-      <c r="AH10" s="107">
-        <f t="shared" ref="AH10" si="126">AG10/$B10</f>
+      <c r="AJ10" s="99">
+        <f t="shared" ref="AJ10" si="122">AI10/$B10</f>
         <v>4.9886075048656754E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f>SUM('12411-0012'!CD15:CH15)</f>
         <v>305350</v>
       </c>
-      <c r="AJ10" s="107">
-        <f t="shared" ref="AJ10" si="127">AI10/$B10</f>
+      <c r="AL10" s="99">
+        <f t="shared" ref="AL10" si="123">AK10/$B10</f>
         <v>3.825267637196008E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <f>SUM('12411-0012'!CI15:CN15)</f>
         <v>220952</v>
       </c>
-      <c r="AL10" s="107">
-        <f t="shared" ref="AL10" si="128">AK10/$B10</f>
-        <v>2.7679729326141555E-2</v>
+      <c r="AN10" s="99">
+        <f t="shared" si="18"/>
+        <v>3.7324139161319936E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="str">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="str">
         <f>'12411-0012'!A16</f>
         <v>Nordrhein-Westfalen</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="102">
         <f>'12411-0012'!CO16</f>
         <v>17932651</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96286862438799503</v>
+      </c>
+      <c r="D11" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
         <f>SUM('12411-0012'!B16:F16)</f>
         <v>857292</v>
       </c>
-      <c r="D11" s="107">
-        <f t="shared" si="0"/>
+      <c r="F11" s="99">
+        <f t="shared" si="2"/>
         <v>4.7806205563248848E-2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <f>SUM('12411-0012'!G16:K16)</f>
         <v>794396</v>
       </c>
-      <c r="F11" s="107">
-        <f t="shared" si="0"/>
+      <c r="H11" s="99">
+        <f t="shared" si="2"/>
         <v>4.4298860218715014E-2</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <f>SUM('12411-0012'!L16:P16)</f>
         <v>821069</v>
       </c>
-      <c r="H11" s="107">
-        <f t="shared" ref="H11" si="129">G11/$B11</f>
+      <c r="J11" s="99">
+        <f t="shared" ref="J11" si="124">I11/$B11</f>
         <v>4.5786258819178492E-2</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f>SUM('12411-0012'!R16:U16)</f>
         <v>736899</v>
       </c>
-      <c r="J11" s="107">
-        <f t="shared" ref="J11" si="130">I11/$B11</f>
+      <c r="L11" s="99">
+        <f t="shared" ref="L11" si="125">K11/$B11</f>
         <v>4.1092585808980502E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f>SUM('12411-0012'!V16:Z16)</f>
         <v>1053688</v>
       </c>
-      <c r="L11" s="107">
-        <f t="shared" ref="L11" si="131">K11/$B11</f>
+      <c r="N11" s="99">
+        <f t="shared" ref="N11" si="126">M11/$B11</f>
         <v>5.8758072077575142E-2</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f>SUM('12411-0012'!AA16:AE16)</f>
         <v>1149459</v>
       </c>
-      <c r="N11" s="107">
-        <f t="shared" ref="N11" si="132">M11/$B11</f>
+      <c r="P11" s="99">
+        <f t="shared" ref="P11" si="127">O11/$B11</f>
         <v>6.4098665612797576E-2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <f>SUM('12411-0012'!AF16:AJ16)</f>
         <v>1125965</v>
       </c>
-      <c r="P11" s="107">
-        <f t="shared" ref="P11" si="133">O11/$B11</f>
+      <c r="R11" s="99">
+        <f t="shared" ref="R11" si="128">Q11/$B11</f>
         <v>6.2788541415321142E-2</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <f>SUM('12411-0012'!AK16:AO16)</f>
         <v>1089356</v>
       </c>
-      <c r="R11" s="107">
-        <f t="shared" ref="R11" si="134">Q11/$B11</f>
+      <c r="T11" s="99">
+        <f t="shared" ref="T11" si="129">S11/$B11</f>
         <v>6.074706968869243E-2</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f>SUM('12411-0012'!AP16:AT16)</f>
         <v>1031842</v>
       </c>
-      <c r="T11" s="107">
-        <f t="shared" ref="T11" si="135">S11/$B11</f>
+      <c r="V11" s="99">
+        <f t="shared" ref="V11" si="130">U11/$B11</f>
         <v>5.7539847287498093E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f>SUM('12411-0012'!AU16:AY16)</f>
         <v>1218039</v>
       </c>
-      <c r="V11" s="107">
-        <f t="shared" ref="V11" si="136">U11/$B11</f>
+      <c r="X11" s="99">
+        <f t="shared" ref="X11" si="131">W11/$B11</f>
         <v>6.7922974690133656E-2</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f>SUM('12411-0012'!AZ16:BD16)</f>
         <v>1516098</v>
       </c>
-      <c r="X11" s="107">
-        <f t="shared" ref="X11" si="137">W11/$B11</f>
+      <c r="Z11" s="99">
+        <f t="shared" ref="Z11" si="132">Y11/$B11</f>
         <v>8.4543997426816592E-2</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <f>SUM('12411-0012'!BE16:BI16)</f>
         <v>1420214</v>
       </c>
-      <c r="Z11" s="107">
-        <f t="shared" ref="Z11" si="138">Y11/$B11</f>
+      <c r="AB11" s="99">
+        <f t="shared" ref="AB11" si="133">AA11/$B11</f>
         <v>7.9197102536596509E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <f>SUM('12411-0012'!BJ16:BN16)</f>
         <v>1185427</v>
       </c>
-      <c r="AB11" s="107">
-        <f t="shared" ref="AB11" si="139">AA11/$B11</f>
+      <c r="AD11" s="99">
+        <f t="shared" ref="AD11" si="134">AC11/$B11</f>
         <v>6.6104392484970576E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <f>SUM('12411-0012'!BO16:BS16)</f>
         <v>1001902</v>
       </c>
-      <c r="AD11" s="107">
-        <f t="shared" ref="AD11" si="140">AC11/$B11</f>
+      <c r="AF11" s="99">
+        <f t="shared" ref="AF11" si="135">AE11/$B11</f>
         <v>5.5870267034137895E-2</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f>SUM('12411-0012'!BT16:BX16)</f>
         <v>761574</v>
       </c>
-      <c r="AF11" s="107">
-        <f t="shared" ref="AF11" si="141">AE11/$B11</f>
+      <c r="AH11" s="99">
+        <f t="shared" ref="AH11" si="136">AG11/$B11</f>
         <v>4.2468567530812927E-2</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f>SUM('12411-0012'!BY16:CC16)</f>
         <v>836348</v>
       </c>
-      <c r="AH11" s="107">
-        <f t="shared" ref="AH11" si="142">AG11/$B11</f>
+      <c r="AJ11" s="99">
+        <f t="shared" ref="AJ11" si="137">AI11/$B11</f>
         <v>4.6638280084745978E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f>SUM('12411-0012'!CD16:CH16)</f>
         <v>667219</v>
       </c>
-      <c r="AJ11" s="107">
-        <f t="shared" ref="AJ11" si="143">AI11/$B11</f>
+      <c r="AL11" s="99">
+        <f t="shared" ref="AL11" si="138">AK11/$B11</f>
         <v>3.7206936107773467E-2</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <f>SUM('12411-0012'!CI16:CN16)</f>
         <v>496274</v>
       </c>
-      <c r="AL11" s="107">
-        <f t="shared" ref="AL11" si="144">AK11/$B11</f>
-        <v>2.7674324337210378E-2</v>
+      <c r="AN11" s="99">
+        <f t="shared" si="18"/>
+        <v>3.7131375612004969E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="str">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="str">
         <f>'12411-0012'!A17</f>
         <v>Rheinland-Pfalz</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="102">
         <f>'12411-0012'!CO17</f>
         <v>4084844</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96237090082265075</v>
+      </c>
+      <c r="D12" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
         <f>SUM('12411-0012'!B17:F17)</f>
         <v>189335</v>
       </c>
-      <c r="D12" s="107">
-        <f t="shared" si="0"/>
+      <c r="F12" s="99">
+        <f t="shared" si="2"/>
         <v>4.635060726921273E-2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <f>SUM('12411-0012'!G17:K17)</f>
         <v>175887</v>
       </c>
-      <c r="F12" s="107">
-        <f t="shared" si="0"/>
+      <c r="H12" s="99">
+        <f t="shared" si="2"/>
         <v>4.3058437482557471E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f>SUM('12411-0012'!L17:P17)</f>
         <v>179846</v>
       </c>
-      <c r="H12" s="107">
-        <f t="shared" ref="H12" si="145">G12/$B12</f>
+      <c r="J12" s="99">
+        <f t="shared" ref="J12" si="139">I12/$B12</f>
         <v>4.4027629941314775E-2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f>SUM('12411-0012'!R17:U17)</f>
         <v>163988</v>
       </c>
-      <c r="J12" s="107">
-        <f t="shared" ref="J12" si="146">I12/$B12</f>
+      <c r="L12" s="99">
+        <f t="shared" ref="L12" si="140">K12/$B12</f>
         <v>4.0145474343695864E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f>SUM('12411-0012'!V17:Z17)</f>
         <v>231551</v>
       </c>
-      <c r="L12" s="107">
-        <f t="shared" ref="L12" si="147">K12/$B12</f>
+      <c r="N12" s="99">
+        <f t="shared" ref="N12" si="141">M12/$B12</f>
         <v>5.6685396064084702E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f>SUM('12411-0012'!AA17:AE17)</f>
         <v>251190</v>
       </c>
-      <c r="N12" s="107">
-        <f t="shared" ref="N12" si="148">M12/$B12</f>
+      <c r="P12" s="99">
+        <f t="shared" ref="P12" si="142">O12/$B12</f>
         <v>6.1493168404962342E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <f>SUM('12411-0012'!AF17:AJ17)</f>
         <v>248271</v>
       </c>
-      <c r="P12" s="107">
-        <f t="shared" ref="P12" si="149">O12/$B12</f>
+      <c r="R12" s="99">
+        <f t="shared" ref="R12" si="143">Q12/$B12</f>
         <v>6.0778575632264048E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <f>SUM('12411-0012'!AK17:AO17)</f>
         <v>243253</v>
       </c>
-      <c r="R12" s="107">
-        <f t="shared" ref="R12" si="150">Q12/$B12</f>
+      <c r="T12" s="99">
+        <f t="shared" ref="T12" si="144">S12/$B12</f>
         <v>5.955013214702936E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f>SUM('12411-0012'!AP17:AT17)</f>
         <v>227898</v>
       </c>
-      <c r="T12" s="107">
-        <f t="shared" ref="T12" si="151">S12/$B12</f>
+      <c r="V12" s="99">
+        <f t="shared" ref="V12" si="145">U12/$B12</f>
         <v>5.5791114666802456E-2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f>SUM('12411-0012'!AU17:AY17)</f>
         <v>271671</v>
       </c>
-      <c r="V12" s="107">
-        <f t="shared" ref="V12" si="152">U12/$B12</f>
+      <c r="X12" s="99">
+        <f t="shared" ref="X12" si="146">W12/$B12</f>
         <v>6.6507068568591607E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f>SUM('12411-0012'!AZ17:BD17)</f>
         <v>346657</v>
       </c>
-      <c r="X12" s="107">
-        <f t="shared" ref="X12" si="153">W12/$B12</f>
+      <c r="Z12" s="99">
+        <f t="shared" ref="Z12" si="147">Y12/$B12</f>
         <v>8.4864195548226565E-2</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <f>SUM('12411-0012'!BE17:BI17)</f>
         <v>342341</v>
       </c>
-      <c r="Z12" s="107">
-        <f t="shared" ref="Z12" si="154">Y12/$B12</f>
+      <c r="AB12" s="99">
+        <f t="shared" ref="AB12" si="148">AA12/$B12</f>
         <v>8.3807606851081712E-2</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <f>SUM('12411-0012'!BJ17:BN17)</f>
         <v>288082</v>
       </c>
-      <c r="AB12" s="107">
-        <f t="shared" ref="AB12" si="155">AA12/$B12</f>
+      <c r="AD12" s="99">
+        <f t="shared" ref="AD12" si="149">AC12/$B12</f>
         <v>7.0524602653124574E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <f>SUM('12411-0012'!BO17:BS17)</f>
         <v>253895</v>
       </c>
-      <c r="AD12" s="107">
-        <f t="shared" ref="AD12" si="156">AC12/$B12</f>
+      <c r="AF12" s="99">
+        <f t="shared" ref="AF12" si="150">AE12/$B12</f>
         <v>6.215537239610619E-2</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f>SUM('12411-0012'!BT17:BX17)</f>
         <v>172224</v>
       </c>
-      <c r="AF12" s="107">
-        <f t="shared" ref="AF12" si="157">AE12/$B12</f>
+      <c r="AH12" s="99">
+        <f t="shared" ref="AH12" si="151">AG12/$B12</f>
         <v>4.2161708011370813E-2</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f>SUM('12411-0012'!BY17:CC17)</f>
         <v>191914</v>
       </c>
-      <c r="AH12" s="107">
-        <f t="shared" ref="AH12" si="158">AG12/$B12</f>
+      <c r="AJ12" s="99">
+        <f t="shared" ref="AJ12" si="152">AI12/$B12</f>
         <v>4.6981965529160966E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f>SUM('12411-0012'!CD17:CH17)</f>
         <v>153132</v>
       </c>
-      <c r="AJ12" s="107">
-        <f t="shared" ref="AJ12" si="159">AI12/$B12</f>
+      <c r="AL12" s="99">
+        <f t="shared" ref="AL12" si="153">AK12/$B12</f>
         <v>3.7487845313064587E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <f>SUM('12411-0012'!CI17:CN17)</f>
         <v>116347</v>
       </c>
-      <c r="AL12" s="107">
-        <f t="shared" ref="AL12" si="160">AK12/$B12</f>
-        <v>2.8482605455679582E-2</v>
+      <c r="AN12" s="99">
+        <f t="shared" si="18"/>
+        <v>3.7629099177349246E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="109" t="str">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="str">
         <f>'12411-0012'!A18</f>
         <v>Saarland</v>
       </c>
-      <c r="B13" s="110">
+      <c r="B13" s="102">
         <f>'12411-0012'!CO18</f>
         <v>990509</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96060611261482742</v>
+      </c>
+      <c r="D13" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
         <f>SUM('12411-0012'!B18:F18)</f>
         <v>40865</v>
       </c>
-      <c r="D13" s="107">
-        <f t="shared" si="0"/>
+      <c r="F13" s="99">
+        <f t="shared" si="2"/>
         <v>4.1256566068556669E-2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <f>SUM('12411-0012'!G18:K18)</f>
         <v>38775</v>
       </c>
-      <c r="F13" s="107">
-        <f t="shared" si="0"/>
+      <c r="H13" s="99">
+        <f t="shared" si="2"/>
         <v>3.9146539809330354E-2</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <f>SUM('12411-0012'!L18:P18)</f>
         <v>40235</v>
       </c>
-      <c r="H13" s="107">
-        <f t="shared" ref="H13" si="161">G13/$B13</f>
+      <c r="J13" s="99">
+        <f t="shared" ref="J13" si="154">I13/$B13</f>
         <v>4.0620529444962139E-2</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f>SUM('12411-0012'!R18:U18)</f>
         <v>36821</v>
       </c>
-      <c r="J13" s="107">
-        <f t="shared" ref="J13" si="162">I13/$B13</f>
+      <c r="L13" s="99">
+        <f t="shared" ref="L13" si="155">K13/$B13</f>
         <v>3.7173816694245083E-2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f>SUM('12411-0012'!V18:Z18)</f>
         <v>52859</v>
       </c>
-      <c r="L13" s="107">
-        <f t="shared" ref="L13" si="163">K13/$B13</f>
+      <c r="N13" s="99">
+        <f t="shared" ref="N13" si="156">M13/$B13</f>
         <v>5.3365491883465975E-2</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f>SUM('12411-0012'!AA18:AE18)</f>
         <v>59357</v>
       </c>
-      <c r="N13" s="107">
-        <f t="shared" ref="N13" si="164">M13/$B13</f>
+      <c r="P13" s="99">
+        <f t="shared" ref="P13" si="157">O13/$B13</f>
         <v>5.9925755343969614E-2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <f>SUM('12411-0012'!AF18:AJ18)</f>
         <v>59013</v>
       </c>
-      <c r="P13" s="107">
-        <f t="shared" ref="P13" si="165">O13/$B13</f>
+      <c r="R13" s="99">
+        <f t="shared" ref="R13" si="158">Q13/$B13</f>
         <v>5.9578459155848154E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <f>SUM('12411-0012'!AK18:AO18)</f>
         <v>57128</v>
       </c>
-      <c r="R13" s="107">
-        <f t="shared" ref="R13" si="166">Q13/$B13</f>
+      <c r="T13" s="99">
+        <f t="shared" ref="T13" si="159">S13/$B13</f>
         <v>5.7675397194775616E-2</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f>SUM('12411-0012'!AP18:AT18)</f>
         <v>52121</v>
       </c>
-      <c r="T13" s="107">
-        <f t="shared" ref="T13" si="167">S13/$B13</f>
+      <c r="V13" s="99">
+        <f t="shared" ref="V13" si="160">U13/$B13</f>
         <v>5.2620420410112376E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f>SUM('12411-0012'!AU18:AY18)</f>
         <v>62207</v>
       </c>
-      <c r="V13" s="107">
-        <f t="shared" ref="V13" si="168">U13/$B13</f>
+      <c r="X13" s="99">
+        <f t="shared" ref="X13" si="161">W13/$B13</f>
         <v>6.2803063879278226E-2</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f>SUM('12411-0012'!AZ18:BD18)</f>
         <v>83687</v>
       </c>
-      <c r="X13" s="107">
-        <f t="shared" ref="X13" si="169">W13/$B13</f>
+      <c r="Z13" s="99">
+        <f t="shared" ref="Z13" si="162">Y13/$B13</f>
         <v>8.448888399802526E-2</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f>SUM('12411-0012'!BE18:BI18)</f>
         <v>87411</v>
       </c>
-      <c r="Z13" s="107">
-        <f t="shared" ref="Z13" si="170">Y13/$B13</f>
+      <c r="AB13" s="99">
+        <f t="shared" ref="AB13" si="163">AA13/$B13</f>
         <v>8.8248567150828516E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <f>SUM('12411-0012'!BJ18:BN18)</f>
         <v>76552</v>
       </c>
-      <c r="AB13" s="107">
-        <f t="shared" ref="AB13" si="171">AA13/$B13</f>
+      <c r="AD13" s="99">
+        <f t="shared" ref="AD13" si="164">AC13/$B13</f>
         <v>7.7285516840331581E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f>SUM('12411-0012'!BO18:BS18)</f>
         <v>68003</v>
       </c>
-      <c r="AD13" s="107">
-        <f t="shared" ref="AD13" si="172">AC13/$B13</f>
+      <c r="AF13" s="99">
+        <f t="shared" ref="AF13" si="165">AE13/$B13</f>
         <v>6.8654600816347958E-2</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f>SUM('12411-0012'!BT18:BX18)</f>
         <v>44371</v>
       </c>
-      <c r="AF13" s="107">
-        <f t="shared" ref="AF13" si="173">AE13/$B13</f>
+      <c r="AH13" s="99">
+        <f t="shared" ref="AH13" si="166">AG13/$B13</f>
         <v>4.4796160357957374E-2</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f>SUM('12411-0012'!BY18:CC18)</f>
         <v>50164</v>
       </c>
-      <c r="AH13" s="107">
-        <f t="shared" ref="AH13" si="174">AG13/$B13</f>
+      <c r="AJ13" s="99">
+        <f t="shared" ref="AJ13" si="167">AI13/$B13</f>
         <v>5.064466854920046E-2</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f>SUM('12411-0012'!CD18:CH18)</f>
         <v>41920</v>
       </c>
-      <c r="AJ13" s="107">
-        <f t="shared" ref="AJ13" si="175">AI13/$B13</f>
+      <c r="AL13" s="99">
+        <f t="shared" ref="AL13" si="168">AK13/$B13</f>
         <v>4.2321675017591966E-2</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <f>SUM('12411-0012'!CI18:CN18)</f>
         <v>30776</v>
       </c>
-      <c r="AL13" s="107">
-        <f t="shared" ref="AL13" si="176">AK13/$B13</f>
-        <v>3.1070893853564176E-2</v>
+      <c r="AN13" s="99">
+        <f t="shared" si="18"/>
+        <v>3.9393887385172577E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="109" t="str">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="101" t="str">
         <f>'12411-0012'!A19</f>
         <v>Sachsen</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="102">
         <f>'12411-0012'!CO19</f>
         <v>4077937</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="113">
+        <f t="shared" si="0"/>
+        <v>0.95739120050162629</v>
+      </c>
+      <c r="D14" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
         <f>SUM('12411-0012'!B19:F19)</f>
         <v>187049</v>
       </c>
-      <c r="D14" s="107">
-        <f t="shared" si="0"/>
+      <c r="F14" s="99">
+        <f t="shared" si="2"/>
         <v>4.5868535977873125E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <f>SUM('12411-0012'!G19:K19)</f>
         <v>182566</v>
       </c>
-      <c r="F14" s="107">
-        <f t="shared" si="0"/>
+      <c r="H14" s="99">
+        <f t="shared" si="2"/>
         <v>4.4769205605677577E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <f>SUM('12411-0012'!L19:P19)</f>
         <v>171548</v>
       </c>
-      <c r="H14" s="107">
-        <f t="shared" ref="H14" si="177">G14/$B14</f>
+      <c r="J14" s="99">
+        <f t="shared" ref="J14" si="169">I14/$B14</f>
         <v>4.2067349250368508E-2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f>SUM('12411-0012'!R19:U19)</f>
         <v>133499</v>
       </c>
-      <c r="J14" s="107">
-        <f t="shared" ref="J14" si="178">I14/$B14</f>
+      <c r="L14" s="99">
+        <f t="shared" ref="L14" si="170">K14/$B14</f>
         <v>3.273689613154887E-2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f>SUM('12411-0012'!V19:Z19)</f>
         <v>163653</v>
       </c>
-      <c r="L14" s="107">
-        <f t="shared" ref="L14" si="179">K14/$B14</f>
+      <c r="N14" s="99">
+        <f t="shared" ref="N14" si="171">M14/$B14</f>
         <v>4.0131321302903894E-2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <f>SUM('12411-0012'!AA19:AE19)</f>
         <v>208830</v>
       </c>
-      <c r="N14" s="107">
-        <f t="shared" ref="N14" si="180">M14/$B14</f>
+      <c r="P14" s="99">
+        <f t="shared" ref="P14" si="172">O14/$B14</f>
         <v>5.1209717070175437E-2</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f>SUM('12411-0012'!AF19:AJ19)</f>
         <v>273447</v>
       </c>
-      <c r="P14" s="107">
-        <f t="shared" ref="P14" si="181">O14/$B14</f>
+      <c r="R14" s="99">
+        <f t="shared" ref="R14" si="173">Q14/$B14</f>
         <v>6.7055229151406701E-2</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <f>SUM('12411-0012'!AK19:AO19)</f>
         <v>264105</v>
       </c>
-      <c r="R14" s="107">
-        <f t="shared" ref="R14" si="182">Q14/$B14</f>
+      <c r="T14" s="99">
+        <f t="shared" ref="T14" si="174">S14/$B14</f>
         <v>6.4764364922753836E-2</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f>SUM('12411-0012'!AP19:AT19)</f>
         <v>230500</v>
       </c>
-      <c r="T14" s="107">
-        <f t="shared" ref="T14" si="183">S14/$B14</f>
+      <c r="V14" s="99">
+        <f t="shared" ref="V14" si="175">U14/$B14</f>
         <v>5.6523678516857911E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f>SUM('12411-0012'!AU19:AY19)</f>
         <v>251763</v>
       </c>
-      <c r="V14" s="107">
-        <f t="shared" ref="V14" si="184">U14/$B14</f>
+      <c r="X14" s="99">
+        <f t="shared" ref="X14" si="176">W14/$B14</f>
         <v>6.1737834596267673E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f>SUM('12411-0012'!AZ19:BD19)</f>
         <v>302101</v>
       </c>
-      <c r="X14" s="107">
-        <f t="shared" ref="X14" si="185">W14/$B14</f>
+      <c r="Z14" s="99">
+        <f t="shared" ref="Z14" si="177">Y14/$B14</f>
         <v>7.4081821273845078E-2</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <f>SUM('12411-0012'!BE19:BI19)</f>
         <v>320927</v>
       </c>
-      <c r="Z14" s="107">
-        <f t="shared" ref="Z14" si="186">Y14/$B14</f>
+      <c r="AB14" s="99">
+        <f t="shared" ref="AB14" si="178">AA14/$B14</f>
         <v>7.8698371259781602E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <f>SUM('12411-0012'!BJ19:BN19)</f>
         <v>289001</v>
       </c>
-      <c r="AB14" s="107">
-        <f t="shared" ref="AB14" si="187">AA14/$B14</f>
+      <c r="AD14" s="99">
+        <f t="shared" ref="AD14" si="179">AC14/$B14</f>
         <v>7.0869412646639707E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <f>SUM('12411-0012'!BO19:BS19)</f>
         <v>286842</v>
       </c>
-      <c r="AD14" s="107">
-        <f t="shared" ref="AD14" si="188">AC14/$B14</f>
+      <c r="AF14" s="99">
+        <f t="shared" ref="AF14" si="180">AE14/$B14</f>
         <v>7.0339978278232351E-2</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f>SUM('12411-0012'!BT19:BX19)</f>
         <v>194158</v>
       </c>
-      <c r="AF14" s="107">
-        <f t="shared" ref="AF14" si="189">AE14/$B14</f>
+      <c r="AH14" s="99">
+        <f t="shared" ref="AH14" si="181">AG14/$B14</f>
         <v>4.7611819407705418E-2</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <f>SUM('12411-0012'!BY19:CC19)</f>
         <v>255119</v>
       </c>
-      <c r="AH14" s="107">
-        <f t="shared" ref="AH14" si="190">AG14/$B14</f>
+      <c r="AJ14" s="99">
+        <f t="shared" ref="AJ14" si="182">AI14/$B14</f>
         <v>6.2560799737710518E-2</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <f>SUM('12411-0012'!CD19:CH19)</f>
         <v>189073</v>
       </c>
-      <c r="AJ14" s="107">
-        <f t="shared" ref="AJ14" si="191">AI14/$B14</f>
+      <c r="AL14" s="99">
+        <f t="shared" ref="AL14" si="183">AK14/$B14</f>
         <v>4.6364865371877985E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <f>SUM('12411-0012'!CI19:CN19)</f>
         <v>141120</v>
       </c>
-      <c r="AL14" s="107">
-        <f t="shared" ref="AL14" si="192">AK14/$B14</f>
-        <v>3.4605733242078038E-2</v>
+      <c r="AN14" s="99">
+        <f t="shared" si="18"/>
+        <v>4.2608799498373706E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="109" t="str">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="str">
         <f>'12411-0012'!A20</f>
         <v>Sachsen-Anhalt</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="102">
         <f>'12411-0012'!CO20</f>
         <v>2208321</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96059993089772733</v>
+      </c>
+      <c r="D15" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
         <f>SUM('12411-0012'!B20:F20)</f>
         <v>91146</v>
       </c>
-      <c r="D15" s="107">
-        <f t="shared" si="0"/>
+      <c r="F15" s="99">
+        <f t="shared" si="2"/>
         <v>4.1273890888145336E-2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <f>SUM('12411-0012'!G20:K20)</f>
         <v>90750</v>
       </c>
-      <c r="F15" s="107">
-        <f t="shared" si="0"/>
+      <c r="H15" s="99">
+        <f t="shared" si="2"/>
         <v>4.1094569131933267E-2</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <f>SUM('12411-0012'!L20:P20)</f>
         <v>88383</v>
       </c>
-      <c r="H15" s="107">
-        <f t="shared" ref="H15" si="193">G15/$B15</f>
+      <c r="J15" s="99">
+        <f t="shared" ref="J15" si="184">I15/$B15</f>
         <v>4.0022714089120198E-2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f>SUM('12411-0012'!R20:U20)</f>
         <v>71350</v>
       </c>
-      <c r="J15" s="107">
-        <f t="shared" ref="J15" si="194">I15/$B15</f>
+      <c r="L15" s="99">
+        <f t="shared" ref="L15" si="185">K15/$B15</f>
         <v>3.2309614408412547E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f>SUM('12411-0012'!V20:Z20)</f>
         <v>84804</v>
       </c>
-      <c r="L15" s="107">
-        <f t="shared" ref="L15" si="195">K15/$B15</f>
+      <c r="N15" s="99">
+        <f t="shared" ref="N15" si="186">M15/$B15</f>
         <v>3.8402025792445935E-2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <f>SUM('12411-0012'!AA20:AE20)</f>
         <v>103210</v>
       </c>
-      <c r="N15" s="107">
-        <f t="shared" ref="N15" si="196">M15/$B15</f>
+      <c r="P15" s="99">
+        <f t="shared" ref="P15" si="187">O15/$B15</f>
         <v>4.6736864794565645E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <f>SUM('12411-0012'!AF20:AJ20)</f>
         <v>135735</v>
       </c>
-      <c r="P15" s="107">
-        <f t="shared" ref="P15" si="197">O15/$B15</f>
+      <c r="R15" s="99">
+        <f t="shared" ref="R15" si="188">Q15/$B15</f>
         <v>6.1465248937994071E-2</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <f>SUM('12411-0012'!AK20:AO20)</f>
         <v>132517</v>
       </c>
-      <c r="R15" s="107">
-        <f t="shared" ref="R15" si="198">Q15/$B15</f>
+      <c r="T15" s="99">
+        <f t="shared" ref="T15" si="189">S15/$B15</f>
         <v>6.0008033252412128E-2</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f>SUM('12411-0012'!AP20:AT20)</f>
         <v>115088</v>
       </c>
-      <c r="T15" s="107">
-        <f t="shared" ref="T15" si="199">S15/$B15</f>
+      <c r="V15" s="99">
+        <f t="shared" ref="V15" si="190">U15/$B15</f>
         <v>5.2115611815492402E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f>SUM('12411-0012'!AU20:AY20)</f>
         <v>142357</v>
       </c>
-      <c r="V15" s="107">
-        <f t="shared" ref="V15" si="200">U15/$B15</f>
+      <c r="X15" s="99">
+        <f t="shared" ref="X15" si="191">W15/$B15</f>
         <v>6.4463907194651504E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f>SUM('12411-0012'!AZ20:BD20)</f>
         <v>179578</v>
       </c>
-      <c r="X15" s="107">
-        <f t="shared" ref="X15" si="201">W15/$B15</f>
+      <c r="Z15" s="99">
+        <f t="shared" ref="Z15" si="192">Y15/$B15</f>
         <v>8.1318793780433191E-2</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <f>SUM('12411-0012'!BE20:BI20)</f>
         <v>196063</v>
       </c>
-      <c r="Z15" s="107">
-        <f t="shared" ref="Z15" si="202">Y15/$B15</f>
+      <c r="AB15" s="99">
+        <f t="shared" ref="AB15" si="193">AA15/$B15</f>
         <v>8.8783741131837263E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <f>SUM('12411-0012'!BJ20:BN20)</f>
         <v>175622</v>
       </c>
-      <c r="AB15" s="107">
-        <f t="shared" ref="AB15" si="203">AA15/$B15</f>
+      <c r="AD15" s="99">
+        <f t="shared" ref="AD15" si="194">AC15/$B15</f>
         <v>7.9527387549183287E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <f>SUM('12411-0012'!BO20:BS20)</f>
         <v>162427</v>
       </c>
-      <c r="AD15" s="107">
-        <f t="shared" ref="AD15" si="204">AC15/$B15</f>
+      <c r="AF15" s="99">
+        <f t="shared" ref="AF15" si="195">AE15/$B15</f>
         <v>7.3552259839036085E-2</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <f>SUM('12411-0012'!BT20:BX20)</f>
         <v>109236</v>
       </c>
-      <c r="AF15" s="107">
-        <f t="shared" ref="AF15" si="205">AE15/$B15</f>
+      <c r="AH15" s="99">
+        <f t="shared" ref="AH15" si="196">AG15/$B15</f>
         <v>4.9465634751469555E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <f>SUM('12411-0012'!BY20:CC20)</f>
         <v>141236</v>
       </c>
-      <c r="AH15" s="107">
-        <f t="shared" ref="AH15" si="206">AG15/$B15</f>
+      <c r="AJ15" s="99">
+        <f t="shared" ref="AJ15" si="197">AI15/$B15</f>
         <v>6.3956281718101665E-2</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <f>SUM('12411-0012'!CD20:CH20)</f>
         <v>101811</v>
       </c>
-      <c r="AJ15" s="107">
-        <f t="shared" ref="AJ15" si="207">AI15/$B15</f>
+      <c r="AL15" s="99">
+        <f t="shared" ref="AL15" si="198">AK15/$B15</f>
         <v>4.6103351822493199E-2</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <f>SUM('12411-0012'!CI20:CN20)</f>
         <v>70208</v>
       </c>
-      <c r="AL15" s="107">
-        <f t="shared" ref="AL15" si="208">AK15/$B15</f>
-        <v>3.1792479444790862E-2</v>
+      <c r="AN15" s="99">
+        <f t="shared" si="18"/>
+        <v>3.9400069102272672E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="109" t="str">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="str">
         <f>'12411-0012'!A21</f>
         <v>Schleswig-Holstein</v>
       </c>
-      <c r="B16" s="110">
+      <c r="B16" s="102">
         <f>'12411-0012'!CO21</f>
         <v>2896712</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96381690689305666</v>
+      </c>
+      <c r="D16" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
         <f>SUM('12411-0012'!B21:F21)</f>
         <v>128354</v>
       </c>
-      <c r="D16" s="107">
-        <f t="shared" si="0"/>
+      <c r="F16" s="99">
+        <f t="shared" si="2"/>
         <v>4.4310238642985562E-2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <f>SUM('12411-0012'!G21:K21)</f>
         <v>125906</v>
       </c>
-      <c r="F16" s="107">
-        <f t="shared" si="0"/>
+      <c r="H16" s="99">
+        <f t="shared" si="2"/>
         <v>4.3465142547826636E-2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <f>SUM('12411-0012'!L21:P21)</f>
         <v>132067</v>
       </c>
-      <c r="H16" s="107">
-        <f t="shared" ref="H16" si="209">G16/$B16</f>
+      <c r="J16" s="99">
+        <f t="shared" ref="J16" si="199">I16/$B16</f>
         <v>4.5592036764441894E-2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f>SUM('12411-0012'!R21:U21)</f>
         <v>120922</v>
       </c>
-      <c r="J16" s="107">
-        <f t="shared" ref="J16" si="210">I16/$B16</f>
+      <c r="L16" s="99">
+        <f t="shared" ref="L16" si="200">K16/$B16</f>
         <v>4.1744571086114186E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f>SUM('12411-0012'!V21:Z21)</f>
         <v>157643</v>
       </c>
-      <c r="L16" s="107">
-        <f t="shared" ref="L16" si="211">K16/$B16</f>
+      <c r="N16" s="99">
+        <f t="shared" ref="N16" si="201">M16/$B16</f>
         <v>5.4421357732491182E-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f>SUM('12411-0012'!AA21:AE21)</f>
         <v>163243</v>
       </c>
-      <c r="N16" s="107">
-        <f t="shared" ref="N16" si="212">M16/$B16</f>
+      <c r="P16" s="99">
+        <f t="shared" ref="P16" si="202">O16/$B16</f>
         <v>5.6354584093965848E-2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <f>SUM('12411-0012'!AF21:AJ21)</f>
         <v>164018</v>
       </c>
-      <c r="P16" s="107">
-        <f t="shared" ref="P16" si="213">O16/$B16</f>
+      <c r="R16" s="99">
+        <f t="shared" ref="R16" si="203">Q16/$B16</f>
         <v>5.6622128813634216E-2</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <f>SUM('12411-0012'!AK21:AO21)</f>
         <v>166912</v>
       </c>
-      <c r="R16" s="107">
-        <f t="shared" ref="R16" si="214">Q16/$B16</f>
+      <c r="T16" s="99">
+        <f t="shared" ref="T16" si="204">S16/$B16</f>
         <v>5.7621192579724874E-2</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f>SUM('12411-0012'!AP21:AT21)</f>
         <v>163797</v>
       </c>
-      <c r="T16" s="107">
-        <f t="shared" ref="T16" si="215">S16/$B16</f>
+      <c r="V16" s="99">
+        <f t="shared" ref="V16" si="205">U16/$B16</f>
         <v>5.6545835416154593E-2</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f>SUM('12411-0012'!AU21:AY21)</f>
         <v>201248</v>
       </c>
-      <c r="V16" s="107">
-        <f t="shared" ref="V16" si="216">U16/$B16</f>
+      <c r="X16" s="99">
+        <f t="shared" ref="X16" si="206">W16/$B16</f>
         <v>6.9474631927509536E-2</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <f>SUM('12411-0012'!AZ21:BD21)</f>
         <v>258715</v>
       </c>
-      <c r="X16" s="107">
-        <f t="shared" ref="X16" si="217">W16/$B16</f>
+      <c r="Z16" s="99">
+        <f t="shared" ref="Z16" si="207">Y16/$B16</f>
         <v>8.9313331805163917E-2</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <f>SUM('12411-0012'!BE21:BI21)</f>
         <v>232593</v>
       </c>
-      <c r="Z16" s="107">
-        <f t="shared" ref="Z16" si="218">Y16/$B16</f>
+      <c r="AB16" s="99">
+        <f t="shared" ref="AB16" si="208">AA16/$B16</f>
         <v>8.0295521266870853E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <f>SUM('12411-0012'!BJ21:BN21)</f>
         <v>188073</v>
       </c>
-      <c r="AB16" s="107">
-        <f t="shared" ref="AB16" si="219">AA16/$B16</f>
+      <c r="AD16" s="99">
+        <f t="shared" ref="AD16" si="209">AC16/$B16</f>
         <v>6.4926371693147258E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <f>SUM('12411-0012'!BO21:BS21)</f>
         <v>168682</v>
       </c>
-      <c r="AD16" s="107">
-        <f t="shared" ref="AD16" si="220">AC16/$B16</f>
+      <c r="AF16" s="99">
+        <f t="shared" ref="AF16" si="210">AE16/$B16</f>
         <v>5.823223019754812E-2</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <f>SUM('12411-0012'!BT21:BX21)</f>
         <v>142644</v>
       </c>
-      <c r="AF16" s="107">
-        <f t="shared" ref="AF16" si="221">AE16/$B16</f>
+      <c r="AH16" s="99">
+        <f t="shared" ref="AH16" si="211">AG16/$B16</f>
         <v>4.9243418054677163E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <f>SUM('12411-0012'!BY21:CC21)</f>
         <v>159771</v>
       </c>
-      <c r="AH16" s="107">
-        <f t="shared" ref="AH16" si="222">AG16/$B16</f>
+      <c r="AJ16" s="99">
+        <f t="shared" ref="AJ16" si="212">AI16/$B16</f>
         <v>5.5155983749851555E-2</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <f>SUM('12411-0012'!CD21:CH21)</f>
         <v>117312</v>
       </c>
-      <c r="AJ16" s="107">
-        <f t="shared" ref="AJ16" si="223">AI16/$B16</f>
+      <c r="AL16" s="99">
+        <f t="shared" ref="AL16" si="213">AK16/$B16</f>
         <v>4.0498330520949269E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <f>SUM('12411-0012'!CI21:CN21)</f>
         <v>77279</v>
       </c>
-      <c r="AL16" s="107">
-        <f t="shared" ref="AL16" si="224">AK16/$B16</f>
-        <v>2.6678178569357256E-2</v>
+      <c r="AN16" s="99">
+        <f t="shared" si="18"/>
+        <v>3.6183093106943343E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="str">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="str">
         <f>'12411-0012'!A22</f>
         <v>Thüringen</v>
       </c>
-      <c r="B17" s="110">
+      <c r="B17" s="102">
         <f>'12411-0012'!CO22</f>
         <v>2143145</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="113">
+        <f t="shared" si="0"/>
+        <v>0.96163815327474356</v>
+      </c>
+      <c r="D17" s="113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
         <f>SUM('12411-0012'!B22:F22)</f>
         <v>92267</v>
       </c>
-      <c r="D17" s="107">
-        <f t="shared" si="0"/>
+      <c r="F17" s="99">
+        <f t="shared" si="2"/>
         <v>4.3052149994517404E-2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <f>SUM('12411-0012'!G22:K22)</f>
         <v>92104</v>
       </c>
-      <c r="F17" s="107">
-        <f t="shared" si="0"/>
+      <c r="H17" s="99">
+        <f t="shared" si="2"/>
         <v>4.2976093544767155E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f>SUM('12411-0012'!L22:P22)</f>
         <v>87884</v>
       </c>
-      <c r="H17" s="107">
-        <f t="shared" ref="H17" si="225">G17/$B17</f>
+      <c r="J17" s="99">
+        <f t="shared" ref="J17" si="214">I17/$B17</f>
         <v>4.1007024723012209E-2</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <f>SUM('12411-0012'!R22:U22)</f>
         <v>70039</v>
       </c>
-      <c r="J17" s="107">
-        <f t="shared" ref="J17" si="226">I17/$B17</f>
+      <c r="L17" s="99">
+        <f t="shared" ref="L17" si="215">K17/$B17</f>
         <v>3.2680476589311502E-2</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <f>SUM('12411-0012'!V22:Z22)</f>
         <v>82795</v>
       </c>
-      <c r="L17" s="107">
-        <f t="shared" ref="L17" si="227">K17/$B17</f>
+      <c r="N17" s="99">
+        <f t="shared" ref="N17" si="216">M17/$B17</f>
         <v>3.8632477037251332E-2</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <f>SUM('12411-0012'!AA22:AE22)</f>
         <v>100492</v>
       </c>
-      <c r="N17" s="107">
-        <f t="shared" ref="N17" si="228">M17/$B17</f>
+      <c r="P17" s="99">
+        <f t="shared" ref="P17" si="217">O17/$B17</f>
         <v>4.6889967780994753E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <f>SUM('12411-0012'!AF22:AJ22)</f>
         <v>135739</v>
       </c>
-      <c r="P17" s="107">
-        <f t="shared" ref="P17" si="229">O17/$B17</f>
+      <c r="R17" s="99">
+        <f t="shared" ref="R17" si="218">Q17/$B17</f>
         <v>6.3336358482510513E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <f>SUM('12411-0012'!AK22:AO22)</f>
         <v>134949</v>
       </c>
-      <c r="R17" s="107">
-        <f t="shared" ref="R17" si="230">Q17/$B17</f>
+      <c r="T17" s="99">
+        <f t="shared" ref="T17" si="219">S17/$B17</f>
         <v>6.2967741333414207E-2</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f>SUM('12411-0012'!AP22:AT22)</f>
         <v>116575</v>
       </c>
-      <c r="T17" s="107">
-        <f t="shared" ref="T17" si="231">S17/$B17</f>
+      <c r="V17" s="99">
+        <f t="shared" ref="V17" si="220">U17/$B17</f>
         <v>5.4394359691014839E-2</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f>SUM('12411-0012'!AU22:AY22)</f>
         <v>137966</v>
       </c>
-      <c r="V17" s="107">
-        <f t="shared" ref="V17" si="232">U17/$B17</f>
+      <c r="X17" s="99">
+        <f t="shared" ref="X17" si="221">W17/$B17</f>
         <v>6.4375485559773141E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <f>SUM('12411-0012'!AZ22:BD22)</f>
         <v>167960</v>
       </c>
-      <c r="X17" s="107">
-        <f t="shared" ref="X17" si="233">W17/$B17</f>
+      <c r="Z17" s="99">
+        <f t="shared" ref="Z17" si="222">Y17/$B17</f>
         <v>7.837080552179157E-2</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <f>SUM('12411-0012'!BE22:BI22)</f>
         <v>186354</v>
       </c>
-      <c r="Z17" s="107">
-        <f t="shared" ref="Z17" si="234">Y17/$B17</f>
+      <c r="AB17" s="99">
+        <f t="shared" ref="AB17" si="223">AA17/$B17</f>
         <v>8.6953519243914895E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <f>SUM('12411-0012'!BJ22:BN22)</f>
         <v>169531</v>
       </c>
-      <c r="AB17" s="107">
-        <f t="shared" ref="AB17" si="235">AA17/$B17</f>
+      <c r="AD17" s="99">
+        <f t="shared" ref="AD17" si="224">AC17/$B17</f>
         <v>7.9103840384108406E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <f>SUM('12411-0012'!BO22:BS22)</f>
         <v>156954</v>
       </c>
-      <c r="AD17" s="107">
-        <f t="shared" ref="AD17" si="236">AC17/$B17</f>
+      <c r="AF17" s="99">
+        <f t="shared" ref="AF17" si="225">AE17/$B17</f>
         <v>7.3235362049697994E-2</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <f>SUM('12411-0012'!BT22:BX22)</f>
         <v>104426</v>
       </c>
-      <c r="AF17" s="107">
-        <f t="shared" ref="AF17" si="237">AE17/$B17</f>
+      <c r="AH17" s="99">
+        <f t="shared" ref="AH17" si="226">AG17/$B17</f>
         <v>4.8725587862697109E-2</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <f>SUM('12411-0012'!BY22:CC22)</f>
         <v>131032</v>
       </c>
-      <c r="AH17" s="107">
-        <f t="shared" ref="AH17" si="238">AG17/$B17</f>
+      <c r="AJ17" s="99">
+        <f t="shared" ref="AJ17" si="227">AI17/$B17</f>
         <v>6.1140053519477218E-2</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <f>SUM('12411-0012'!CD22:CH22)</f>
         <v>93863</v>
       </c>
-      <c r="AJ17" s="107">
-        <f t="shared" ref="AJ17" si="239">AI17/$B17</f>
+      <c r="AL17" s="99">
+        <f t="shared" ref="AL17" si="228">AK17/$B17</f>
         <v>4.3796849956489178E-2</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <f>SUM('12411-0012'!CI22:CN22)</f>
         <v>65015</v>
       </c>
-      <c r="AL17" s="107">
-        <f t="shared" ref="AL17" si="240">AK17/$B17</f>
-        <v>3.0336258162653482E-2</v>
+      <c r="AN17" s="99">
+        <f t="shared" si="18"/>
+        <v>3.8361846725256443E-2</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
